--- a/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
+++ b/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207FB24-2A25-FC49-A320-22B27D3E4DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6018A-1066-754D-8AA9-0F8958D8ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="9720" windowWidth="29460" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="1080" windowWidth="32600" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="203">
   <si>
     <t>PMID</t>
   </si>
@@ -626,6 +626,9 @@
   </si>
   <si>
     <t>NM_003242.6(TGFBR2):c.1067G&gt;C (p.Arg356Pro) - R381P in original publication, see VCV000177704.12</t>
+  </si>
+  <si>
+    <t>a male patient</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1:BG1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3591,6 +3594,9 @@
       <c r="B19" t="s">
         <v>173</v>
       </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>

--- a/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
+++ b/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C6018A-1066-754D-8AA9-0F8958D8ADB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D9C788-9226-814A-8DEE-17F1A2AEE418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="1080" windowWidth="32600" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="8680" windowWidth="32600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="212">
   <si>
     <t>PMID</t>
   </si>
@@ -629,6 +629,33 @@
   </si>
   <si>
     <t>a male patient</t>
+  </si>
+  <si>
+    <t>PMID:30101859</t>
+  </si>
+  <si>
+    <t>Three Novel Mutations in FBN1 and TGFBR2 in Patients with the Syndromic Form of Thoracic Aortic Aneurysms and Dissections</t>
+  </si>
+  <si>
+    <t>Patient 4</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>HP:0000486</t>
+  </si>
+  <si>
+    <t>Tricuspid valve prolapse</t>
+  </si>
+  <si>
+    <t>HP:0001704</t>
+  </si>
+  <si>
+    <t>c.1084C&gt;T</t>
+  </si>
+  <si>
+    <t>NM_003242.6:c.1084C&gt;T;NP_003233.4:p.(H362Y)</t>
   </si>
 </sst>
 </file>
@@ -1011,15 +1038,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF22"/>
+  <dimension ref="A1:BH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,100 +1129,106 @@
         <v>35</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>64</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1278,100 +1311,106 @@
         <v>72</v>
       </c>
       <c r="AB2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC2" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>163</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>80</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>82</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>84</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>89</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>92</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AY2" t="s">
         <v>93</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>94</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>95</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>96</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>101</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>97</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>98</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>99</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>100</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1450,17 +1489,14 @@
       <c r="AA3" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" t="s">
-        <v>27</v>
-      </c>
       <c r="AC3" t="s">
         <v>27</v>
       </c>
-      <c r="AE3" t="s">
-        <v>128</v>
+      <c r="AD3" t="s">
+        <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="AG3" t="s">
         <v>27</v>
@@ -1471,11 +1507,11 @@
       <c r="AI3" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" t="s">
-        <v>128</v>
+      <c r="AJ3" t="s">
+        <v>27</v>
       </c>
       <c r="AU3" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="AV3" t="s">
         <v>27</v>
@@ -1483,11 +1519,14 @@
       <c r="AW3" t="s">
         <v>27</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1563,38 +1602,35 @@
       <c r="AA4" t="s">
         <v>128</v>
       </c>
-      <c r="AB4" t="s">
-        <v>128</v>
-      </c>
       <c r="AC4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>127</v>
       </c>
       <c r="AF4" t="s">
         <v>128</v>
       </c>
       <c r="AG4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AH4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK4" t="s">
         <v>128</v>
       </c>
       <c r="AL4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>127</v>
       </c>
       <c r="AP4" t="s">
         <v>128</v>
@@ -1612,34 +1648,37 @@
         <v>128</v>
       </c>
       <c r="AU4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX4" t="s">
         <v>128</v>
       </c>
       <c r="AY4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ4" t="s">
         <v>128</v>
       </c>
+      <c r="BA4" t="s">
+        <v>128</v>
+      </c>
       <c r="BB4" t="s">
         <v>128</v>
       </c>
-      <c r="BC4" t="s">
-        <v>128</v>
-      </c>
       <c r="BD4" t="s">
         <v>128</v>
       </c>
+      <c r="BE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1715,38 +1754,35 @@
       <c r="AA5" t="s">
         <v>127</v>
       </c>
-      <c r="AB5" t="s">
-        <v>128</v>
-      </c>
       <c r="AC5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>127</v>
       </c>
       <c r="AF5" t="s">
         <v>128</v>
       </c>
       <c r="AG5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AH5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL5" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" t="s">
-        <v>128</v>
+      <c r="AM5" t="s">
+        <v>127</v>
       </c>
       <c r="AP5" t="s">
         <v>128</v>
@@ -1772,26 +1808,29 @@
       <c r="AW5" t="s">
         <v>128</v>
       </c>
-      <c r="AX5" t="s">
-        <v>128</v>
-      </c>
       <c r="AY5" t="s">
         <v>128</v>
       </c>
       <c r="AZ5" t="s">
         <v>128</v>
       </c>
+      <c r="BA5" t="s">
+        <v>128</v>
+      </c>
       <c r="BB5" t="s">
         <v>128</v>
       </c>
-      <c r="BC5" t="s">
-        <v>128</v>
-      </c>
       <c r="BD5" t="s">
         <v>128</v>
       </c>
+      <c r="BE5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1870,14 +1909,11 @@
       <c r="AA6" t="s">
         <v>128</v>
       </c>
-      <c r="AB6" t="s">
-        <v>127</v>
-      </c>
       <c r="AC6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>27</v>
       </c>
       <c r="AF6" t="s">
         <v>128</v>
@@ -1889,7 +1925,7 @@
         <v>128</v>
       </c>
       <c r="AI6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ6" t="s">
         <v>127</v>
@@ -1898,22 +1934,22 @@
         <v>127</v>
       </c>
       <c r="AL6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>128</v>
       </c>
       <c r="AP6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ6" t="s">
         <v>128</v>
       </c>
       <c r="AR6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AS6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT6" t="s">
         <v>128</v>
@@ -1925,28 +1961,31 @@
         <v>128</v>
       </c>
       <c r="AW6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AY6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA6" t="s">
         <v>128</v>
       </c>
       <c r="BB6" t="s">
         <v>128</v>
       </c>
-      <c r="BC6" t="s">
-        <v>128</v>
-      </c>
       <c r="BD6" t="s">
         <v>128</v>
       </c>
+      <c r="BE6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2025,41 +2064,38 @@
       <c r="AA7" t="s">
         <v>127</v>
       </c>
-      <c r="AB7" t="s">
-        <v>127</v>
-      </c>
       <c r="AC7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>128</v>
       </c>
       <c r="AF7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AH7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ7" t="s">
         <v>127</v>
       </c>
       <c r="AK7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AL7" t="s">
         <v>128</v>
       </c>
-      <c r="AO7" t="s">
-        <v>127</v>
+      <c r="AM7" t="s">
+        <v>128</v>
       </c>
       <c r="AP7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ7" t="s">
         <v>128</v>
@@ -2080,28 +2116,31 @@
         <v>128</v>
       </c>
       <c r="AW7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX7" t="s">
         <v>128</v>
       </c>
       <c r="AY7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ7" t="s">
         <v>128</v>
       </c>
+      <c r="BA7" t="s">
+        <v>128</v>
+      </c>
       <c r="BB7" t="s">
         <v>128</v>
       </c>
-      <c r="BC7" t="s">
-        <v>128</v>
-      </c>
       <c r="BD7" t="s">
         <v>128</v>
       </c>
+      <c r="BE7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2180,13 +2219,10 @@
       <c r="AA8" t="s">
         <v>128</v>
       </c>
-      <c r="AB8" t="s">
-        <v>127</v>
-      </c>
       <c r="AC8" t="s">
         <v>127</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AD8" t="s">
         <v>127</v>
       </c>
       <c r="AF8" t="s">
@@ -2208,10 +2244,10 @@
         <v>127</v>
       </c>
       <c r="AL8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>128</v>
       </c>
       <c r="AP8" t="s">
         <v>127</v>
@@ -2220,16 +2256,16 @@
         <v>127</v>
       </c>
       <c r="AR8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV8" t="s">
         <v>127</v>
@@ -2237,9 +2273,6 @@
       <c r="AW8" t="s">
         <v>127</v>
       </c>
-      <c r="AX8" t="s">
-        <v>127</v>
-      </c>
       <c r="AY8" t="s">
         <v>127</v>
       </c>
@@ -2256,10 +2289,16 @@
         <v>127</v>
       </c>
       <c r="BD8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2338,47 +2377,44 @@
       <c r="AA9" t="s">
         <v>127</v>
       </c>
-      <c r="AB9" t="s">
-        <v>127</v>
-      </c>
       <c r="AC9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>27</v>
       </c>
       <c r="AF9" t="s">
         <v>128</v>
       </c>
-      <c r="AH9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>128</v>
+      <c r="AG9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>127</v>
       </c>
       <c r="AK9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s">
         <v>127</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="AM9" t="s">
         <v>127</v>
       </c>
       <c r="AP9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>128</v>
       </c>
       <c r="AS9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT9" t="s">
         <v>128</v>
       </c>
       <c r="AU9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV9" t="s">
         <v>127</v>
@@ -2386,26 +2422,29 @@
       <c r="AW9" t="s">
         <v>127</v>
       </c>
-      <c r="AX9" t="s">
-        <v>27</v>
-      </c>
       <c r="AY9" t="s">
         <v>127</v>
       </c>
       <c r="AZ9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA9" t="s">
         <v>127</v>
       </c>
       <c r="BB9" t="s">
         <v>127</v>
       </c>
-      <c r="BC9" t="s">
-        <v>127</v>
-      </c>
       <c r="BD9" t="s">
         <v>127</v>
       </c>
+      <c r="BE9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2484,38 +2523,35 @@
       <c r="AA10" t="s">
         <v>128</v>
       </c>
-      <c r="AB10" t="s">
-        <v>128</v>
-      </c>
       <c r="AC10" t="s">
         <v>128</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>128</v>
       </c>
       <c r="AF10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG10" t="s">
         <v>127</v>
       </c>
       <c r="AH10" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="AI10" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s">
         <v>127</v>
       </c>
-      <c r="AO10" t="s">
-        <v>128</v>
+      <c r="AM10" t="s">
+        <v>127</v>
       </c>
       <c r="AP10" t="s">
         <v>128</v>
@@ -2524,16 +2560,16 @@
         <v>128</v>
       </c>
       <c r="AR10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AS10" t="s">
         <v>127</v>
       </c>
       <c r="AT10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV10" t="s">
         <v>127</v>
@@ -2541,26 +2577,29 @@
       <c r="AW10" t="s">
         <v>127</v>
       </c>
-      <c r="AX10" t="s">
-        <v>127</v>
-      </c>
       <c r="AY10" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>127</v>
       </c>
       <c r="BA10" t="s">
         <v>128</v>
       </c>
-      <c r="BB10" t="s">
-        <v>128</v>
-      </c>
       <c r="BC10" t="s">
         <v>128</v>
       </c>
       <c r="BD10" t="s">
         <v>128</v>
       </c>
+      <c r="BE10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2636,44 +2675,41 @@
       <c r="AA11" t="s">
         <v>128</v>
       </c>
-      <c r="AB11" t="s">
-        <v>127</v>
-      </c>
       <c r="AC11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD11" t="s">
         <v>128</v>
       </c>
       <c r="AF11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s">
         <v>127</v>
       </c>
       <c r="AH11" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="AI11" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL11" t="s">
         <v>127</v>
       </c>
-      <c r="AO11" t="s">
+      <c r="AM11" t="s">
         <v>127</v>
       </c>
       <c r="AP11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR11" t="s">
         <v>127</v>
@@ -2682,10 +2718,10 @@
         <v>127</v>
       </c>
       <c r="AT11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV11" t="s">
         <v>127</v>
@@ -2693,23 +2729,26 @@
       <c r="AW11" t="s">
         <v>127</v>
       </c>
-      <c r="AX11" t="s">
-        <v>127</v>
-      </c>
       <c r="AY11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA11" t="s">
         <v>128</v>
       </c>
       <c r="BD11" t="s">
         <v>128</v>
       </c>
+      <c r="BE11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2785,26 +2824,23 @@
       <c r="AA12" t="s">
         <v>128</v>
       </c>
-      <c r="AB12" t="s">
-        <v>128</v>
-      </c>
       <c r="AC12" t="s">
         <v>128</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>128</v>
       </c>
       <c r="AF12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s">
         <v>127</v>
       </c>
       <c r="AH12" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="AI12" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="s">
         <v>127</v>
@@ -2815,26 +2851,26 @@
       <c r="AL12" t="s">
         <v>127</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AM12" t="s">
         <v>127</v>
       </c>
       <c r="AP12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR12" t="s">
         <v>127</v>
       </c>
       <c r="AS12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT12" t="s">
         <v>128</v>
       </c>
       <c r="AU12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV12" t="s">
         <v>127</v>
@@ -2842,23 +2878,26 @@
       <c r="AW12" t="s">
         <v>127</v>
       </c>
-      <c r="AX12" t="s">
-        <v>127</v>
-      </c>
       <c r="AY12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA12" t="s">
         <v>128</v>
       </c>
       <c r="BD12" t="s">
         <v>128</v>
       </c>
+      <c r="BE12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -2934,14 +2973,11 @@
       <c r="AA13" t="s">
         <v>128</v>
       </c>
-      <c r="AB13" t="s">
-        <v>128</v>
-      </c>
       <c r="AC13" t="s">
         <v>128</v>
       </c>
-      <c r="AE13" t="s">
-        <v>127</v>
+      <c r="AD13" t="s">
+        <v>128</v>
       </c>
       <c r="AF13" t="s">
         <v>127</v>
@@ -2950,10 +2986,10 @@
         <v>127</v>
       </c>
       <c r="AH13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ13" t="s">
         <v>127</v>
@@ -2962,19 +2998,19 @@
         <v>127</v>
       </c>
       <c r="AL13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>128</v>
       </c>
       <c r="AP13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS13" t="s">
         <v>128</v>
@@ -2983,7 +3019,7 @@
         <v>128</v>
       </c>
       <c r="AU13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AV13" t="s">
         <v>127</v>
@@ -2991,11 +3027,8 @@
       <c r="AW13" t="s">
         <v>127</v>
       </c>
-      <c r="AX13" t="s">
-        <v>128</v>
-      </c>
       <c r="AY13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ13" t="s">
         <v>128</v>
@@ -3010,10 +3043,16 @@
         <v>128</v>
       </c>
       <c r="BD13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -3089,17 +3128,14 @@
       <c r="Z14" t="s">
         <v>127</v>
       </c>
-      <c r="AF14" t="s">
-        <v>127</v>
-      </c>
       <c r="AG14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH14" t="s">
         <v>128</v>
       </c>
       <c r="AI14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ14" t="s">
         <v>127</v>
@@ -3114,25 +3150,22 @@
         <v>127</v>
       </c>
       <c r="AN14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO14" t="s">
         <v>128</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AP14" t="s">
         <v>128</v>
       </c>
       <c r="AT14" t="s">
         <v>128</v>
       </c>
-      <c r="AW14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX14" t="s">
+      <c r="AU14" t="s">
         <v>128</v>
       </c>
       <c r="AY14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ14" t="s">
         <v>128</v>
@@ -3143,11 +3176,17 @@
       <c r="BB14" t="s">
         <v>128</v>
       </c>
+      <c r="BC14" t="s">
+        <v>128</v>
+      </c>
       <c r="BD14" t="s">
         <v>128</v>
       </c>
+      <c r="BF14" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3214,14 +3253,11 @@
       <c r="Z15" t="s">
         <v>127</v>
       </c>
-      <c r="AG15" t="s">
-        <v>128</v>
-      </c>
       <c r="AH15" t="s">
         <v>128</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>127</v>
+      <c r="AI15" t="s">
+        <v>128</v>
       </c>
       <c r="AK15" t="s">
         <v>127</v>
@@ -3230,7 +3266,7 @@
         <v>127</v>
       </c>
       <c r="AM15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN15" t="s">
         <v>128</v>
@@ -3238,35 +3274,38 @@
       <c r="AO15" t="s">
         <v>128</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AP15" t="s">
         <v>128</v>
       </c>
       <c r="AT15" t="s">
         <v>128</v>
       </c>
-      <c r="AW15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX15" t="s">
+      <c r="AU15" t="s">
         <v>128</v>
       </c>
       <c r="AY15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AZ15" t="s">
         <v>128</v>
       </c>
       <c r="BA15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BB15" t="s">
         <v>128</v>
       </c>
+      <c r="BC15" t="s">
+        <v>127</v>
+      </c>
       <c r="BD15" t="s">
         <v>128</v>
       </c>
+      <c r="BF15" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -3333,9 +3372,6 @@
       <c r="AA16" t="s">
         <v>128</v>
       </c>
-      <c r="AD16" t="s">
-        <v>127</v>
-      </c>
       <c r="AE16" t="s">
         <v>127</v>
       </c>
@@ -3343,22 +3379,22 @@
         <v>127</v>
       </c>
       <c r="AG16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s">
         <v>127</v>
       </c>
       <c r="AL16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM16" t="s">
         <v>128</v>
@@ -3367,40 +3403,43 @@
         <v>128</v>
       </c>
       <c r="AO16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP16" t="s">
         <v>127</v>
       </c>
       <c r="AR16" t="s">
         <v>127</v>
       </c>
       <c r="AS16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT16" t="s">
         <v>128</v>
       </c>
       <c r="AU16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV16" t="s">
         <v>127</v>
       </c>
       <c r="AY16" t="s">
         <v>127</v>
       </c>
-      <c r="BB16" t="s">
-        <v>128</v>
+      <c r="AZ16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>127</v>
       </c>
       <c r="BD16" t="s">
         <v>128</v>
       </c>
+      <c r="BF16" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -3467,32 +3506,32 @@
       <c r="Z17" t="s">
         <v>127</v>
       </c>
-      <c r="AI17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AJ17" t="s">
         <v>127</v>
       </c>
       <c r="AL17" t="s">
         <v>127</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AM17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT17" t="s">
         <v>159</v>
       </c>
-      <c r="AT17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE17" t="s">
+      <c r="AU17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3559,35 +3598,35 @@
       <c r="AA18" t="s">
         <v>128</v>
       </c>
-      <c r="AI18" t="s">
-        <v>127</v>
-      </c>
       <c r="AJ18" t="s">
         <v>127</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AK18" t="s">
         <v>127</v>
       </c>
       <c r="AM18" t="s">
         <v>127</v>
       </c>
       <c r="AN18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO18" t="s">
         <v>128</v>
       </c>
-      <c r="AR18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW18" t="s">
+      <c r="AP18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -3666,32 +3705,32 @@
       <c r="AA19" t="s">
         <v>128</v>
       </c>
-      <c r="AB19" t="s">
-        <v>128</v>
-      </c>
       <c r="AC19" t="s">
         <v>128</v>
       </c>
       <c r="AD19" t="s">
         <v>128</v>
       </c>
-      <c r="AF19" t="s">
-        <v>127</v>
+      <c r="AE19" t="s">
+        <v>128</v>
       </c>
       <c r="AG19" t="s">
         <v>127</v>
       </c>
-      <c r="AO19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS19" t="s">
+      <c r="AH19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP19" t="s">
         <v>127</v>
       </c>
       <c r="AT19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3752,9 +3791,6 @@
       <c r="Z20" t="s">
         <v>127</v>
       </c>
-      <c r="AE20" t="s">
-        <v>128</v>
-      </c>
       <c r="AF20" t="s">
         <v>128</v>
       </c>
@@ -3767,11 +3803,14 @@
       <c r="AI20" t="s">
         <v>128</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AJ20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -3844,47 +3883,47 @@
       <c r="Y21" t="s">
         <v>128</v>
       </c>
-      <c r="AF21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN21" s="3" t="s">
-        <v>127</v>
+      <c r="AG21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>128</v>
       </c>
       <c r="AO21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AQ21" s="3" t="s">
+      <c r="AP21" s="3" t="s">
         <v>127</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -3942,37 +3981,129 @@
       <c r="V22" t="s">
         <v>127</v>
       </c>
-      <c r="AF22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL22" s="3" t="s">
+      <c r="AG22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL22" t="s">
         <v>127</v>
       </c>
       <c r="AM22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AN22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS22" t="s">
+      <c r="AN22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT22" t="s">
         <v>159</v>
       </c>
-      <c r="AT22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE22" s="3" t="s">
+      <c r="AU22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY22" t="s">
         <v>127</v>
       </c>
       <c r="BF22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH22" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>122</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>127</v>
+      </c>
+      <c r="W23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX23" t="s">
         <v>127</v>
       </c>
     </row>

--- a/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
+++ b/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D9C788-9226-814A-8DEE-17F1A2AEE418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AEC955-1D13-024F-91EF-DFAE733E3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="8680" windowWidth="32600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="216">
   <si>
     <t>PMID</t>
   </si>
@@ -656,6 +656,18 @@
   </si>
   <si>
     <t>NM_003242.6:c.1084C&gt;T;NP_003233.4:p.(H362Y)</t>
+  </si>
+  <si>
+    <t>Dilatation of the sinus of Valsalva</t>
+  </si>
+  <si>
+    <t>HP:0011645</t>
+  </si>
+  <si>
+    <t>Aortic regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001659</t>
   </si>
 </sst>
 </file>
@@ -1038,15 +1050,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH23"/>
+  <dimension ref="A1:BJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,133 +1114,139 @@
         <v>28</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>64</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1284,133 +1302,139 @@
         <v>65</v>
       </c>
       <c r="S2" t="s">
+        <v>213</v>
+      </c>
+      <c r="T2" t="s">
         <v>66</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>148</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>181</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>68</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB2" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>209</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>76</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>77</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>79</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>82</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>83</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>84</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>86</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>87</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>89</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>90</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>91</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>92</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>207</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>93</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>94</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>95</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>96</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>101</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>97</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>98</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>99</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>100</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1462,14 +1486,11 @@
       <c r="R3" t="s">
         <v>27</v>
       </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
       <c r="T3" t="s">
         <v>127</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="V3" t="s">
         <v>27</v>
@@ -1486,23 +1507,20 @@
       <c r="Z3" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>27</v>
       </c>
       <c r="AC3" t="s">
         <v>27</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>27</v>
       </c>
       <c r="AF3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG3" t="s">
         <v>27</v>
       </c>
       <c r="AH3" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="AI3" t="s">
         <v>27</v>
@@ -1510,23 +1528,29 @@
       <c r="AJ3" t="s">
         <v>27</v>
       </c>
-      <c r="AU3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="AK3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" t="s">
         <v>27</v>
       </c>
       <c r="AW3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX3" t="s">
         <v>27</v>
       </c>
       <c r="AY3" t="s">
         <v>27</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1575,14 +1599,11 @@
       <c r="R4" t="s">
         <v>27</v>
       </c>
-      <c r="S4" t="s">
-        <v>128</v>
-      </c>
       <c r="T4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V4" t="s">
         <v>128</v>
@@ -1597,25 +1618,22 @@
         <v>128</v>
       </c>
       <c r="Z4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>127</v>
       </c>
       <c r="AC4" t="s">
         <v>128</v>
       </c>
-      <c r="AD4" t="s">
-        <v>127</v>
+      <c r="AE4" t="s">
+        <v>128</v>
       </c>
       <c r="AF4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI4" t="s">
         <v>128</v>
@@ -1627,16 +1645,16 @@
         <v>128</v>
       </c>
       <c r="AL4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>127</v>
       </c>
       <c r="AR4" t="s">
         <v>128</v>
@@ -1651,34 +1669,40 @@
         <v>128</v>
       </c>
       <c r="AV4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AW4" t="s">
         <v>128</v>
       </c>
+      <c r="AX4" t="s">
+        <v>127</v>
+      </c>
       <c r="AY4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ4" t="s">
         <v>128</v>
       </c>
       <c r="BA4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB4" t="s">
         <v>128</v>
       </c>
+      <c r="BC4" t="s">
+        <v>128</v>
+      </c>
       <c r="BD4" t="s">
         <v>128</v>
       </c>
-      <c r="BE4" t="s">
-        <v>128</v>
-      </c>
       <c r="BF4" t="s">
         <v>128</v>
       </c>
+      <c r="BG4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1727,14 +1751,11 @@
       <c r="R5" t="s">
         <v>27</v>
       </c>
-      <c r="S5" t="s">
-        <v>128</v>
-      </c>
       <c r="T5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V5" t="s">
         <v>128</v>
@@ -1746,28 +1767,25 @@
         <v>128</v>
       </c>
       <c r="Y5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Z5" t="s">
         <v>127</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>127</v>
       </c>
       <c r="AC5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>128</v>
       </c>
       <c r="AF5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI5" t="s">
         <v>128</v>
@@ -1782,13 +1800,13 @@
         <v>127</v>
       </c>
       <c r="AM5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>127</v>
       </c>
       <c r="AR5" t="s">
         <v>128</v>
@@ -1808,29 +1826,35 @@
       <c r="AW5" t="s">
         <v>128</v>
       </c>
+      <c r="AX5" t="s">
+        <v>128</v>
+      </c>
       <c r="AY5" t="s">
         <v>128</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>128</v>
-      </c>
       <c r="BA5" t="s">
         <v>128</v>
       </c>
       <c r="BB5" t="s">
         <v>128</v>
       </c>
+      <c r="BC5" t="s">
+        <v>128</v>
+      </c>
       <c r="BD5" t="s">
         <v>128</v>
       </c>
-      <c r="BE5" t="s">
-        <v>128</v>
-      </c>
       <c r="BF5" t="s">
         <v>128</v>
       </c>
+      <c r="BG5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1882,9 +1906,6 @@
       <c r="R6" t="s">
         <v>27</v>
       </c>
-      <c r="S6" t="s">
-        <v>127</v>
-      </c>
       <c r="T6" t="s">
         <v>127</v>
       </c>
@@ -1892,34 +1913,31 @@
         <v>127</v>
       </c>
       <c r="V6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y6" t="s">
         <v>128</v>
       </c>
       <c r="Z6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>127</v>
       </c>
       <c r="AC6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>127</v>
       </c>
       <c r="AF6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AH6" t="s">
         <v>128</v>
@@ -1928,34 +1946,34 @@
         <v>128</v>
       </c>
       <c r="AJ6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL6" t="s">
         <v>127</v>
       </c>
       <c r="AM6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO6" t="s">
         <v>128</v>
       </c>
       <c r="AR6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT6" t="s">
         <v>128</v>
       </c>
       <c r="AU6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV6" t="s">
         <v>128</v>
@@ -1963,29 +1981,35 @@
       <c r="AW6" t="s">
         <v>128</v>
       </c>
+      <c r="AX6" t="s">
+        <v>128</v>
+      </c>
       <c r="AY6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BA6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC6" t="s">
         <v>128</v>
       </c>
       <c r="BD6" t="s">
         <v>128</v>
       </c>
-      <c r="BE6" t="s">
-        <v>128</v>
-      </c>
       <c r="BF6" t="s">
         <v>128</v>
       </c>
+      <c r="BG6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2037,14 +2061,11 @@
       <c r="R7" t="s">
         <v>27</v>
       </c>
-      <c r="S7" t="s">
-        <v>128</v>
-      </c>
       <c r="T7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V7" t="s">
         <v>128</v>
@@ -2059,21 +2080,18 @@
         <v>128</v>
       </c>
       <c r="Z7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB7" t="s">
         <v>127</v>
       </c>
       <c r="AC7" t="s">
         <v>127</v>
       </c>
-      <c r="AD7" t="s">
-        <v>128</v>
+      <c r="AE7" t="s">
+        <v>127</v>
       </c>
       <c r="AF7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG7" t="s">
         <v>128</v>
       </c>
       <c r="AH7" t="s">
@@ -2086,22 +2104,22 @@
         <v>127</v>
       </c>
       <c r="AK7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7" t="s">
         <v>128</v>
       </c>
       <c r="AR7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS7" t="s">
         <v>128</v>
@@ -2118,29 +2136,35 @@
       <c r="AW7" t="s">
         <v>128</v>
       </c>
+      <c r="AX7" t="s">
+        <v>128</v>
+      </c>
       <c r="AY7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ7" t="s">
         <v>128</v>
       </c>
       <c r="BA7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB7" t="s">
         <v>128</v>
       </c>
+      <c r="BC7" t="s">
+        <v>128</v>
+      </c>
       <c r="BD7" t="s">
         <v>128</v>
       </c>
-      <c r="BE7" t="s">
-        <v>128</v>
-      </c>
       <c r="BF7" t="s">
         <v>128</v>
       </c>
+      <c r="BG7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2192,9 +2216,6 @@
       <c r="R8" t="s">
         <v>27</v>
       </c>
-      <c r="S8" t="s">
-        <v>127</v>
-      </c>
       <c r="T8" t="s">
         <v>127</v>
       </c>
@@ -2216,21 +2237,18 @@
       <c r="Z8" t="s">
         <v>127</v>
       </c>
-      <c r="AA8" t="s">
-        <v>128</v>
+      <c r="AB8" t="s">
+        <v>127</v>
       </c>
       <c r="AC8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE8" t="s">
         <v>127</v>
       </c>
       <c r="AF8" t="s">
         <v>127</v>
       </c>
-      <c r="AG8" t="s">
-        <v>127</v>
-      </c>
       <c r="AH8" t="s">
         <v>127</v>
       </c>
@@ -2247,19 +2265,19 @@
         <v>127</v>
       </c>
       <c r="AM8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>128</v>
       </c>
       <c r="AR8" t="s">
         <v>127</v>
       </c>
       <c r="AS8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT8" t="s">
         <v>127</v>
@@ -2271,14 +2289,14 @@
         <v>127</v>
       </c>
       <c r="AW8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX8" t="s">
         <v>127</v>
       </c>
       <c r="AY8" t="s">
         <v>127</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>127</v>
-      </c>
       <c r="BA8" t="s">
         <v>127</v>
       </c>
@@ -2295,10 +2313,16 @@
         <v>127</v>
       </c>
       <c r="BF8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2350,101 +2374,101 @@
       <c r="R9" t="s">
         <v>27</v>
       </c>
-      <c r="S9" t="s">
-        <v>27</v>
-      </c>
       <c r="T9" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="U9" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="V9" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="W9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="X9" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
         <v>27</v>
       </c>
       <c r="Z9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
         <v>127</v>
       </c>
       <c r="AC9" t="s">
         <v>127</v>
       </c>
-      <c r="AD9" t="s">
-        <v>27</v>
+      <c r="AE9" t="s">
+        <v>127</v>
       </c>
       <c r="AF9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH9" t="s">
         <v>128</v>
       </c>
       <c r="AI9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL9" t="s">
         <v>127</v>
       </c>
       <c r="AM9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>127</v>
       </c>
       <c r="AS9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT9" t="s">
         <v>128</v>
       </c>
       <c r="AU9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AW9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX9" t="s">
         <v>127</v>
       </c>
       <c r="AY9" t="s">
         <v>127</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>27</v>
-      </c>
       <c r="BA9" t="s">
         <v>127</v>
       </c>
       <c r="BB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC9" t="s">
         <v>127</v>
       </c>
       <c r="BD9" t="s">
         <v>127</v>
       </c>
-      <c r="BE9" t="s">
-        <v>127</v>
-      </c>
       <c r="BF9" t="s">
         <v>127</v>
       </c>
+      <c r="BG9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2496,110 +2520,110 @@
       <c r="R10" t="s">
         <v>27</v>
       </c>
-      <c r="S10" t="s">
-        <v>128</v>
-      </c>
       <c r="T10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="W10" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="X10" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>127</v>
       </c>
       <c r="AC10" t="s">
         <v>128</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>128</v>
       </c>
       <c r="AF10" t="s">
         <v>128</v>
       </c>
-      <c r="AG10" t="s">
-        <v>127</v>
-      </c>
       <c r="AH10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI10" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="AJ10" t="s">
         <v>127</v>
       </c>
       <c r="AK10" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="s">
         <v>127</v>
       </c>
       <c r="AM10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>127</v>
       </c>
       <c r="AR10" t="s">
         <v>128</v>
       </c>
       <c r="AS10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AU10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV10" t="s">
         <v>127</v>
       </c>
       <c r="AW10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX10" t="s">
         <v>127</v>
       </c>
       <c r="AY10" t="s">
         <v>127</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>127</v>
-      </c>
       <c r="BA10" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>127</v>
       </c>
       <c r="BC10" t="s">
         <v>128</v>
       </c>
-      <c r="BD10" t="s">
-        <v>128</v>
-      </c>
       <c r="BE10" t="s">
         <v>128</v>
       </c>
       <c r="BF10" t="s">
         <v>128</v>
       </c>
+      <c r="BG10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2648,14 +2672,11 @@
       <c r="R11" t="s">
         <v>27</v>
       </c>
-      <c r="S11" t="s">
-        <v>127</v>
-      </c>
       <c r="T11" t="s">
         <v>127</v>
       </c>
       <c r="U11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V11" t="s">
         <v>128</v>
@@ -2664,91 +2685,94 @@
         <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>27</v>
       </c>
       <c r="AC11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>127</v>
       </c>
       <c r="AF11" t="s">
         <v>128</v>
       </c>
-      <c r="AG11" t="s">
-        <v>127</v>
-      </c>
       <c r="AH11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI11" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="AJ11" t="s">
         <v>127</v>
       </c>
       <c r="AK11" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="s">
         <v>127</v>
       </c>
       <c r="AM11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>127</v>
       </c>
       <c r="AR11" t="s">
         <v>127</v>
       </c>
       <c r="AS11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT11" t="s">
         <v>127</v>
       </c>
       <c r="AU11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV11" t="s">
         <v>127</v>
       </c>
       <c r="AW11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX11" t="s">
         <v>127</v>
       </c>
       <c r="AY11" t="s">
         <v>127</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>127</v>
-      </c>
       <c r="BA11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC11" t="s">
         <v>128</v>
       </c>
       <c r="BF11" t="s">
         <v>128</v>
       </c>
+      <c r="BG11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2797,9 +2821,6 @@
       <c r="R12" t="s">
         <v>27</v>
       </c>
-      <c r="S12" t="s">
-        <v>127</v>
-      </c>
       <c r="T12" t="s">
         <v>127</v>
       </c>
@@ -2807,46 +2828,43 @@
         <v>127</v>
       </c>
       <c r="V12" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="X12" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>27</v>
       </c>
       <c r="AC12" t="s">
         <v>128</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>128</v>
       </c>
       <c r="AF12" t="s">
         <v>128</v>
       </c>
-      <c r="AG12" t="s">
-        <v>127</v>
-      </c>
       <c r="AH12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AI12" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="AJ12" t="s">
         <v>127</v>
       </c>
       <c r="AK12" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="AL12" t="s">
         <v>127</v>
@@ -2854,50 +2872,56 @@
       <c r="AM12" t="s">
         <v>127</v>
       </c>
-      <c r="AP12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>128</v>
+      <c r="AN12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>127</v>
       </c>
       <c r="AR12" t="s">
         <v>127</v>
       </c>
       <c r="AS12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AW12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX12" t="s">
         <v>127</v>
       </c>
       <c r="AY12" t="s">
         <v>127</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>127</v>
-      </c>
       <c r="BA12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC12" t="s">
         <v>128</v>
       </c>
       <c r="BF12" t="s">
         <v>128</v>
       </c>
+      <c r="BG12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -2949,64 +2973,58 @@
       <c r="R13" t="s">
         <v>27</v>
       </c>
-      <c r="S13" t="s">
-        <v>128</v>
-      </c>
       <c r="T13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U13" t="s">
         <v>127</v>
       </c>
       <c r="V13" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
         <v>128</v>
       </c>
       <c r="Z13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>127</v>
       </c>
       <c r="AC13" t="s">
         <v>128</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>128</v>
       </c>
       <c r="AF13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AH13" t="s">
         <v>127</v>
       </c>
       <c r="AI13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ13" t="s">
         <v>127</v>
       </c>
       <c r="AK13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s">
         <v>127</v>
       </c>
       <c r="AM13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO13" t="s">
         <v>128</v>
       </c>
       <c r="AR13" t="s">
@@ -3016,25 +3034,25 @@
         <v>128</v>
       </c>
       <c r="AT13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU13" t="s">
         <v>128</v>
       </c>
       <c r="AV13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AW13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX13" t="s">
         <v>127</v>
       </c>
       <c r="AY13" t="s">
         <v>127</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>128</v>
-      </c>
       <c r="BA13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB13" t="s">
         <v>128</v>
@@ -3049,10 +3067,16 @@
         <v>128</v>
       </c>
       <c r="BF13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -3104,9 +3128,6 @@
       <c r="R14" t="s">
         <v>128</v>
       </c>
-      <c r="S14" t="s">
-        <v>128</v>
-      </c>
       <c r="T14" t="s">
         <v>128</v>
       </c>
@@ -3114,10 +3135,10 @@
         <v>128</v>
       </c>
       <c r="V14" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="W14" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="X14" t="s">
         <v>128</v>
@@ -3126,22 +3147,19 @@
         <v>128</v>
       </c>
       <c r="Z14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>127</v>
       </c>
       <c r="AI14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AL14" t="s">
         <v>127</v>
@@ -3153,25 +3171,25 @@
         <v>127</v>
       </c>
       <c r="AO14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW14" t="s">
         <v>128</v>
       </c>
       <c r="BA14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB14" t="s">
         <v>128</v>
@@ -3182,11 +3200,17 @@
       <c r="BD14" t="s">
         <v>128</v>
       </c>
+      <c r="BE14" t="s">
+        <v>128</v>
+      </c>
       <c r="BF14" t="s">
         <v>128</v>
       </c>
+      <c r="BH14" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3235,77 +3259,77 @@
       <c r="R15" t="s">
         <v>152</v>
       </c>
-      <c r="S15" t="s">
-        <v>128</v>
-      </c>
       <c r="T15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U15" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="V15" t="s">
         <v>27</v>
       </c>
       <c r="W15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI15" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>128</v>
       </c>
       <c r="AK15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM15" t="s">
         <v>127</v>
       </c>
       <c r="AN15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP15" t="s">
         <v>128</v>
       </c>
-      <c r="AT15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ15" t="s">
+      <c r="AQ15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW15" t="s">
         <v>128</v>
       </c>
       <c r="BA15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BB15" t="s">
         <v>128</v>
       </c>
       <c r="BC15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BD15" t="s">
         <v>128</v>
       </c>
+      <c r="BE15" t="s">
+        <v>127</v>
+      </c>
       <c r="BF15" t="s">
         <v>128</v>
       </c>
+      <c r="BH15" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -3357,32 +3381,26 @@
       <c r="R16" t="s">
         <v>27</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>160</v>
       </c>
-      <c r="U16" t="s">
-        <v>27</v>
-      </c>
       <c r="V16" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>127</v>
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>128</v>
       </c>
       <c r="AG16" t="s">
         <v>127</v>
       </c>
       <c r="AH16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI16" t="s">
         <v>127</v>
@@ -3394,52 +3412,58 @@
         <v>127</v>
       </c>
       <c r="AL16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO16" t="s">
         <v>128</v>
       </c>
       <c r="AP16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>128</v>
       </c>
       <c r="AR16" t="s">
         <v>127</v>
       </c>
-      <c r="AS16" t="s">
-        <v>127</v>
-      </c>
       <c r="AT16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX16" t="s">
         <v>127</v>
       </c>
       <c r="BA16" t="s">
         <v>127</v>
       </c>
-      <c r="BD16" t="s">
-        <v>128</v>
+      <c r="BB16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>127</v>
       </c>
       <c r="BF16" t="s">
         <v>128</v>
       </c>
+      <c r="BH16" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -3491,47 +3515,47 @@
       <c r="R17" t="s">
         <v>27</v>
       </c>
-      <c r="S17" t="s">
-        <v>127</v>
-      </c>
       <c r="T17" t="s">
         <v>127</v>
       </c>
       <c r="U17" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="V17" t="s">
         <v>27</v>
       </c>
-      <c r="Z17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB17" t="s">
         <v>127</v>
       </c>
       <c r="AL17" t="s">
         <v>127</v>
       </c>
-      <c r="AM17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT17" t="s">
+      <c r="AN17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV17" t="s">
         <v>159</v>
       </c>
-      <c r="AU17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG17" t="s">
+      <c r="AW17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3583,50 +3607,50 @@
       <c r="R18" t="s">
         <v>128</v>
       </c>
-      <c r="T18" t="s">
-        <v>127</v>
-      </c>
       <c r="U18" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="V18" t="s">
         <v>27</v>
       </c>
-      <c r="Z18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK18" t="s">
+      <c r="W18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL18" t="s">
         <v>127</v>
       </c>
       <c r="AM18" t="s">
         <v>127</v>
       </c>
-      <c r="AN18" t="s">
-        <v>127</v>
-      </c>
       <c r="AO18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AP18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>128</v>
       </c>
       <c r="AU18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -3678,20 +3702,17 @@
       <c r="R19" t="s">
         <v>128</v>
       </c>
-      <c r="S19" t="s">
-        <v>128</v>
-      </c>
       <c r="T19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V19" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="W19" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="X19" t="s">
         <v>128</v>
@@ -3700,37 +3721,40 @@
         <v>128</v>
       </c>
       <c r="Z19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>128</v>
+        <v>128</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>127</v>
       </c>
       <c r="AC19" t="s">
         <v>128</v>
       </c>
-      <c r="AD19" t="s">
-        <v>128</v>
-      </c>
       <c r="AE19" t="s">
         <v>128</v>
       </c>
+      <c r="AF19" t="s">
+        <v>128</v>
+      </c>
       <c r="AG19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3782,20 +3806,14 @@
       <c r="R20" t="s">
         <v>118</v>
       </c>
-      <c r="T20" t="s">
-        <v>127</v>
-      </c>
-      <c r="V20" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>128</v>
+      <c r="U20" t="s">
+        <v>127</v>
+      </c>
+      <c r="W20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>127</v>
       </c>
       <c r="AH20" t="s">
         <v>128</v>
@@ -3806,11 +3824,17 @@
       <c r="AJ20" t="s">
         <v>128</v>
       </c>
-      <c r="AU20" t="s">
+      <c r="AK20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -3862,14 +3886,11 @@
       <c r="R21" t="s">
         <v>128</v>
       </c>
-      <c r="S21" t="s">
-        <v>128</v>
-      </c>
       <c r="T21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V21" t="s">
         <v>128</v>
@@ -3883,47 +3904,50 @@
       <c r="Y21" t="s">
         <v>128</v>
       </c>
-      <c r="AG21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP21" s="3" t="s">
+      <c r="Z21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ21" s="3" t="s">
         <v>127</v>
       </c>
       <c r="AR21" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AS21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG21" t="s">
+      <c r="AT21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -3975,47 +3999,47 @@
       <c r="R22" t="s">
         <v>190</v>
       </c>
-      <c r="T22" t="s">
-        <v>127</v>
-      </c>
-      <c r="V22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT22" t="s">
+      <c r="U22" t="s">
+        <v>127</v>
+      </c>
+      <c r="W22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV22" t="s">
         <v>159</v>
       </c>
-      <c r="AU22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG22" s="3" t="s">
+      <c r="AW22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA22" t="s">
         <v>127</v>
       </c>
       <c r="BH22" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="BI22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ22" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -4064,16 +4088,19 @@
       <c r="Q23" t="s">
         <v>27</v>
       </c>
-      <c r="T23" t="s">
-        <v>127</v>
-      </c>
-      <c r="W23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="S23" t="s">
+        <v>127</v>
+      </c>
+      <c r="U23" t="s">
+        <v>127</v>
+      </c>
+      <c r="X23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD23" t="s">
         <v>127</v>
       </c>
       <c r="AE23" t="s">
@@ -4082,28 +4109,31 @@
       <c r="AG23" t="s">
         <v>127</v>
       </c>
-      <c r="AH23" t="s">
+      <c r="AI23" t="s">
         <v>127</v>
       </c>
       <c r="AJ23" t="s">
         <v>127</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AL23" t="s">
         <v>127</v>
       </c>
       <c r="AM23" t="s">
         <v>127</v>
       </c>
-      <c r="AN23" t="s">
-        <v>128</v>
-      </c>
       <c r="AO23" t="s">
         <v>127</v>
       </c>
       <c r="AP23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ23" t="s">
         <v>127</v>
       </c>
     </row>

--- a/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
+++ b/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AEC955-1D13-024F-91EF-DFAE733E3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC736B1F-12E2-5247-8399-9DA1B870F845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="8680" windowWidth="32600" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="3500" windowWidth="35660" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="416">
   <si>
     <t>PMID</t>
   </si>
@@ -668,13 +681,613 @@
   </si>
   <si>
     <t>HP:0001659</t>
+  </si>
+  <si>
+    <t>PMID:39188477</t>
+  </si>
+  <si>
+    <t>Acute Transverse Myelitis in a Patient With Type 2 Loeys-Dietz Syndrome: A Report of a Rare Case From India</t>
+  </si>
+  <si>
+    <t>NP_003233.4:p.(Trp521Arg)</t>
+  </si>
+  <si>
+    <t>Dolichocephaly</t>
+  </si>
+  <si>
+    <t>HP:0000268</t>
+  </si>
+  <si>
+    <t>Atlantoaxial dislocation</t>
+  </si>
+  <si>
+    <t>HP:0003414</t>
+  </si>
+  <si>
+    <t>PMID:39289723</t>
+  </si>
+  <si>
+    <t>Thoracoabdominal aortic replacement in a 6-year-old boy with Loeys-Dietz syndrome</t>
+  </si>
+  <si>
+    <t>Case presentation</t>
+  </si>
+  <si>
+    <t>NM_001024847.3:c.1411G&gt;T=NM_003242.6:c.1336G&gt;T=NP_003233.4:p.(Asp446Tyr)</t>
+  </si>
+  <si>
+    <t>Arachnoid cyst</t>
+  </si>
+  <si>
+    <t>HP:0100702</t>
+  </si>
+  <si>
+    <t>c.1336G&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:36328362</t>
+  </si>
+  <si>
+    <t>Infant with Loeys-Dietz syndrome treated for febrile status epilepticus with COVID-19 infection: first reported case of febrile status epilepticus and focal seizures in a patient with Loeys-Dietz syndrome and review of literature</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>Biventricular hypertrophy</t>
+  </si>
+  <si>
+    <t>HP:0200128</t>
+  </si>
+  <si>
+    <t>Coarctation of aorta</t>
+  </si>
+  <si>
+    <t>HP:0001680</t>
+  </si>
+  <si>
+    <t>P3M</t>
+  </si>
+  <si>
+    <t>P1M</t>
+  </si>
+  <si>
+    <t>Carotid artery tortuosity</t>
+  </si>
+  <si>
+    <t>HP:0005302</t>
+  </si>
+  <si>
+    <t>NM_001024847.3:c.1715T&gt;C=NP_001020018.1:p.(Leu572Pro)=NM_003242.6:c.1640T&gt;C</t>
+  </si>
+  <si>
+    <t>c.1640T&gt;C</t>
+  </si>
+  <si>
+    <t>Neonatal onset</t>
+  </si>
+  <si>
+    <t>PMID:33235621</t>
+  </si>
+  <si>
+    <t>Loeys-Dietz syndrome associated with a heterozygous mutation in TGFBR2 in a female infant: A case report</t>
+  </si>
+  <si>
+    <t>Case report</t>
+  </si>
+  <si>
+    <t>P2M23D</t>
+  </si>
+  <si>
+    <t>Micrognathia</t>
+  </si>
+  <si>
+    <t>HP:0000347</t>
+  </si>
+  <si>
+    <t>c.1366G&gt;A</t>
+  </si>
+  <si>
+    <t>NM_001024847.3:c.1441G&gt;A=NP_001020018.1:p.(Glu481Lys)=NM_003242.6:c.1366G&gt;A</t>
+  </si>
+  <si>
+    <t>High palate</t>
+  </si>
+  <si>
+    <t>HP:0000218</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>HP:0001252</t>
+  </si>
+  <si>
+    <t>Adducted thumb</t>
+  </si>
+  <si>
+    <t>HP:0001181</t>
+  </si>
+  <si>
+    <t>Genu recurvatum</t>
+  </si>
+  <si>
+    <t>HP:0002816</t>
+  </si>
+  <si>
+    <t>P1D</t>
+  </si>
+  <si>
+    <t>Ventriculomegaly</t>
+  </si>
+  <si>
+    <t>HP:0002119</t>
+  </si>
+  <si>
+    <t>PMID:35668506</t>
+  </si>
+  <si>
+    <t>Neonatal presentation of Loeys-Dietz syndrome: two case reports and review of the literature</t>
+  </si>
+  <si>
+    <t>First clinical case</t>
+  </si>
+  <si>
+    <t>Downslanted palpebral fissures</t>
+  </si>
+  <si>
+    <t>HP:0000494</t>
+  </si>
+  <si>
+    <t>Short philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000322</t>
+  </si>
+  <si>
+    <t>Downturned corners of mouth</t>
+  </si>
+  <si>
+    <t>HP:0002714</t>
+  </si>
+  <si>
+    <t>Thin upper lip vermilion</t>
+  </si>
+  <si>
+    <t>HP:0000219</t>
+  </si>
+  <si>
+    <t>Low-set ears</t>
+  </si>
+  <si>
+    <t>HP:0000369</t>
+  </si>
+  <si>
+    <t>c.1378C&gt;G</t>
+  </si>
+  <si>
+    <t>NP_003233.4:p.(Arg460Gly)</t>
+  </si>
+  <si>
+    <t>P5M</t>
+  </si>
+  <si>
+    <t>PMID:33209733</t>
+  </si>
+  <si>
+    <t>Surgical treatment of Loeys-Dietz syndrome in a 3-year-old: case report and review of literature</t>
+  </si>
+  <si>
+    <t>P3Y6M</t>
+  </si>
+  <si>
+    <t>NM_001024847.3:c.1634G&gt;T=NP_001020018.1:p.(Cys545Phe)=NM_003242.6:c.1559G&gt;T</t>
+  </si>
+  <si>
+    <t>c.1559G&gt;T</t>
+  </si>
+  <si>
+    <t>PMID:21567932</t>
+  </si>
+  <si>
+    <t>TGFBR2 deletion in a 20-month-old female with developmental delay and microcephaly</t>
+  </si>
+  <si>
+    <t>896 kb deletion including the entire TGFBR2 gene</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>HP:0000252</t>
+  </si>
+  <si>
+    <t>Deeply set eye</t>
+  </si>
+  <si>
+    <t>HP:0000490</t>
+  </si>
+  <si>
+    <t>Depressed nasal bridge</t>
+  </si>
+  <si>
+    <t>HP:0005280</t>
+  </si>
+  <si>
+    <t>Overfolded helix</t>
+  </si>
+  <si>
+    <t>HP:0000396</t>
+  </si>
+  <si>
+    <t>Hypoplasia of the brainstem</t>
+  </si>
+  <si>
+    <t>HP:0002365</t>
+  </si>
+  <si>
+    <t>Thin corpus callosum</t>
+  </si>
+  <si>
+    <t>HP:0033725</t>
+  </si>
+  <si>
+    <t>Smooth philtrum</t>
+  </si>
+  <si>
+    <t>HP:0000319</t>
+  </si>
+  <si>
+    <t>P1Y8M</t>
+  </si>
+  <si>
+    <t>Cryptorchidism</t>
+  </si>
+  <si>
+    <t>HP:0000028</t>
+  </si>
+  <si>
+    <t>NM_001024847.3:c.1142G&gt;C=NP_001020018.1:p.(Arg381Pro)=NM_003242.6:c.1067G&gt;C</t>
+  </si>
+  <si>
+    <t>c.1579G&gt;A</t>
+  </si>
+  <si>
+    <t>PMID:27146836</t>
+  </si>
+  <si>
+    <t>Next-generation sequencing for diagnosis of thoracic aortic aneurysms and dissections: diagnostic yield, novel mutations and genotype phenotype correlations</t>
+  </si>
+  <si>
+    <t>No 11 Family TAAD048</t>
+  </si>
+  <si>
+    <t>NP_003233.4:p.(Ala527Thr)</t>
+  </si>
+  <si>
+    <t>P40Y</t>
+  </si>
+  <si>
+    <t>Cervical spine instability</t>
+  </si>
+  <si>
+    <t>HP:0010646</t>
+  </si>
+  <si>
+    <t>Umbilical hernia</t>
+  </si>
+  <si>
+    <t>HP:0001537</t>
+  </si>
+  <si>
+    <t>Varicose veins</t>
+  </si>
+  <si>
+    <t>HP:0002619</t>
+  </si>
+  <si>
+    <t>Allergy</t>
+  </si>
+  <si>
+    <t>HP:0012393</t>
+  </si>
+  <si>
+    <t>Tortuous cerebral arteries</t>
+  </si>
+  <si>
+    <t>HP:0004938</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>PMID:31569402</t>
+  </si>
+  <si>
+    <t>Genotypic Categorization of Loeys-Dietz Syndrome Based on 24 Novel Families and Literature Data</t>
+  </si>
+  <si>
+    <t>Family 10 Patient I</t>
+  </si>
+  <si>
+    <t>Family 10 Patient II</t>
+  </si>
+  <si>
+    <t>Family 11 Patient I</t>
+  </si>
+  <si>
+    <t>Family 12 Patient I</t>
+  </si>
+  <si>
+    <t>Family 13 Patient I</t>
+  </si>
+  <si>
+    <t>Family 14 Patient I</t>
+  </si>
+  <si>
+    <t>Family 14 Patient II</t>
+  </si>
+  <si>
+    <t>Family 15 Patient I</t>
+  </si>
+  <si>
+    <t>Family 16 Patient I</t>
+  </si>
+  <si>
+    <t>Family 17 Patient I</t>
+  </si>
+  <si>
+    <t>Family 18 Patient I</t>
+  </si>
+  <si>
+    <t>Family 19 Patient I</t>
+  </si>
+  <si>
+    <t>P51Y</t>
+  </si>
+  <si>
+    <t>P21Y</t>
+  </si>
+  <si>
+    <t>P76Y</t>
+  </si>
+  <si>
+    <t>P1Y</t>
+  </si>
+  <si>
+    <t>P12Y</t>
+  </si>
+  <si>
+    <t>c.1609C&gt;T</t>
+  </si>
+  <si>
+    <t>c.1598G&gt;T</t>
+  </si>
+  <si>
+    <t>c.263+6C&gt;T</t>
+  </si>
+  <si>
+    <t>c.1564G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1336G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1187G&gt;A</t>
+  </si>
+  <si>
+    <t>c.1184T&gt;C</t>
+  </si>
+  <si>
+    <t>c.1270T&gt;G</t>
+  </si>
+  <si>
+    <t>p.(Arg537Cys)</t>
+  </si>
+  <si>
+    <t>p.(Arg528Cys)</t>
+  </si>
+  <si>
+    <t>p.(Cys533Phe)</t>
+  </si>
+  <si>
+    <t>p.(Asp446Tyr)</t>
+  </si>
+  <si>
+    <t>p.(Arg114*)</t>
+  </si>
+  <si>
+    <t>p.(Asp522Asn)</t>
+  </si>
+  <si>
+    <t>p.(Asp446Asn)</t>
+  </si>
+  <si>
+    <t>p.(Cys396Tyr)</t>
+  </si>
+  <si>
+    <t>p.(Leu395Pro)</t>
+  </si>
+  <si>
+    <t>p.(Tyr424Asp)</t>
+  </si>
+  <si>
+    <t>Epicanthus</t>
+  </si>
+  <si>
+    <t>HP:0000286</t>
+  </si>
+  <si>
+    <t>Frontal bossing</t>
+  </si>
+  <si>
+    <t>HP:0002007</t>
+  </si>
+  <si>
+    <t>Prominent nose</t>
+  </si>
+  <si>
+    <t>HP:0000448</t>
+  </si>
+  <si>
+    <t>Hyperextensible skin</t>
+  </si>
+  <si>
+    <t>HP:0000974</t>
+  </si>
+  <si>
+    <t>Atrophic scars</t>
+  </si>
+  <si>
+    <t>HP:0001075</t>
+  </si>
+  <si>
+    <t>Bruising susceptibility</t>
+  </si>
+  <si>
+    <t>HP:0000978</t>
+  </si>
+  <si>
+    <t>Milia</t>
+  </si>
+  <si>
+    <t>HP:0001056</t>
+  </si>
+  <si>
+    <t>Striae distensae</t>
+  </si>
+  <si>
+    <t>HP:0001065</t>
+  </si>
+  <si>
+    <t>Genu valgum</t>
+  </si>
+  <si>
+    <t>HP:0002857</t>
+  </si>
+  <si>
+    <t>Pes planus</t>
+  </si>
+  <si>
+    <t>HP:0001763</t>
+  </si>
+  <si>
+    <t>Reduced bone mineral density</t>
+  </si>
+  <si>
+    <t>HP:0004349</t>
+  </si>
+  <si>
+    <t>Recurrent joint dislocation</t>
+  </si>
+  <si>
+    <t>HP:0031869</t>
+  </si>
+  <si>
+    <t>Osteoarthritis</t>
+  </si>
+  <si>
+    <t>HP:0002758</t>
+  </si>
+  <si>
+    <t>Mitral regurgitation</t>
+  </si>
+  <si>
+    <t>HP:0001653</t>
+  </si>
+  <si>
+    <t>Keratoconus</t>
+  </si>
+  <si>
+    <t>HP:0000563</t>
+  </si>
+  <si>
+    <t>Hypospadias</t>
+  </si>
+  <si>
+    <t>HP:0000047</t>
+  </si>
+  <si>
+    <t>Food allergy</t>
+  </si>
+  <si>
+    <t>HP:0500093</t>
+  </si>
+  <si>
+    <t>PMID:19883511</t>
+  </si>
+  <si>
+    <t>Loeys-Dietz syndrome type I and type II: clinical findings and novel mutations in two Italian patients</t>
+  </si>
+  <si>
+    <t>P48Y</t>
+  </si>
+  <si>
+    <t>Young adult onset</t>
+  </si>
+  <si>
+    <t>c.1529T&gt;G</t>
+  </si>
+  <si>
+    <t>NP_003233.4:p.(Ile510Ser)</t>
+  </si>
+  <si>
+    <t>PMID:16251899</t>
+  </si>
+  <si>
+    <t>Two novel and one known mutation of the TGFBR2 gene in Marfan syndrome not associated with FBN1 gene defects</t>
+  </si>
+  <si>
+    <t>Case no. 1</t>
+  </si>
+  <si>
+    <t>Case no. 2</t>
+  </si>
+  <si>
+    <t>Case no. 3</t>
+  </si>
+  <si>
+    <t>P27Y</t>
+  </si>
+  <si>
+    <t>Pes cavus</t>
+  </si>
+  <si>
+    <t>HP:0001761</t>
+  </si>
+  <si>
+    <t>Spondylolisthesis at L5-S1</t>
+  </si>
+  <si>
+    <t>HP:0008489</t>
+  </si>
+  <si>
+    <t>P4Y</t>
+  </si>
+  <si>
+    <t>NM_003242.6(TGFBR2):c.1379G&gt;A (p.Arg460His)</t>
+  </si>
+  <si>
+    <t>c.1379G&gt;A</t>
+  </si>
+  <si>
+    <t>NM_003242.6(TGFBR2):c.1273A&gt;G (p.Met425Val)</t>
+  </si>
+  <si>
+    <t>c.1273A&gt;G</t>
+  </si>
+  <si>
+    <t>NM_003242.6(TGFBR2):c.1336G&gt;A (p.Asp446Asn)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +1312,18 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -739,13 +1364,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,203 +1682,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ23"/>
+  <dimension ref="A1:DG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="AA23" sqref="AA23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="10" max="11" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:111" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AU1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AW1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AX1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>376</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="BH1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="BK1" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="BO1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="BP1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BR1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BV1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="BW1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BX1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BY1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BZ1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="CA1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="CB1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="CC1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="CD1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="CE1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="CG1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="CH1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CI1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="CK1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="CL1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CM1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CN1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="CO1" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="CP1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="CQ1" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +2074,7 @@
         <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
@@ -1311,130 +2095,277 @@
         <v>67</v>
       </c>
       <c r="V2" t="s">
+        <v>236</v>
+      </c>
+      <c r="W2" t="s">
         <v>148</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>181</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>215</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE2" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH2" t="s">
         <v>209</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>74</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>163</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>75</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AN2" t="s">
         <v>76</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AO2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT2" t="s">
         <v>77</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AU2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW2" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AX2" t="s">
         <v>79</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AY2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>409</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>377</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>257</v>
+      </c>
+      <c r="BH2" t="s">
         <v>80</v>
       </c>
-      <c r="AN2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="BI2" t="s">
         <v>86</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BJ2" t="s">
         <v>87</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BK2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>371</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BO2" t="s">
         <v>88</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BP2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>89</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BR2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU2" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BV2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BW2" t="s">
         <v>91</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BX2" t="s">
         <v>92</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BY2" t="s">
         <v>207</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BZ2" t="s">
+        <v>361</v>
+      </c>
+      <c r="CA2" t="s">
         <v>93</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="CB2" t="s">
+        <v>267</v>
+      </c>
+      <c r="CC2" t="s">
         <v>94</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="CD2" t="s">
+        <v>363</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>301</v>
+      </c>
+      <c r="CG2" t="s">
         <v>95</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="CH2" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="CI2" t="s">
         <v>101</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="CJ2" t="s">
         <v>97</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="CK2" t="s">
         <v>98</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="CL2" t="s">
         <v>99</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="CM2" t="s">
         <v>100</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="CN2" t="s">
+        <v>315</v>
+      </c>
+      <c r="CO2" t="s">
         <v>194</v>
       </c>
+      <c r="CP2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>383</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>385</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>255</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>262</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>289</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>299</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>304</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>313</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>317</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>319</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>393</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>389</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1492,9 +2423,6 @@
       <c r="U3" t="s">
         <v>127</v>
       </c>
-      <c r="V3" t="s">
-        <v>27</v>
-      </c>
       <c r="W3" t="s">
         <v>27</v>
       </c>
@@ -1507,50 +2435,56 @@
       <c r="Z3" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" t="s">
         <v>27</v>
       </c>
       <c r="AE3" t="s">
         <v>27</v>
       </c>
-      <c r="AF3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>128</v>
-      </c>
       <c r="AI3" t="s">
         <v>27</v>
       </c>
       <c r="AJ3" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" t="s">
-        <v>27</v>
-      </c>
       <c r="AL3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" t="s">
         <v>27</v>
       </c>
       <c r="AW3" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AX3" t="s">
         <v>27</v>
       </c>
-      <c r="AY3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BB3" t="s">
+      <c r="BF3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CC3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1605,9 +2539,6 @@
       <c r="U4" t="s">
         <v>127</v>
       </c>
-      <c r="V4" t="s">
-        <v>128</v>
-      </c>
       <c r="W4" t="s">
         <v>128</v>
       </c>
@@ -1620,20 +2551,14 @@
       <c r="Z4" t="s">
         <v>128</v>
       </c>
-      <c r="AB4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AA4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD4" t="s">
         <v>128</v>
       </c>
       <c r="AE4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI4" t="s">
         <v>128</v>
@@ -1641,35 +2566,14 @@
       <c r="AJ4" t="s">
         <v>127</v>
       </c>
-      <c r="AK4" t="s">
-        <v>128</v>
-      </c>
       <c r="AL4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM4" t="s">
         <v>128</v>
       </c>
       <c r="AN4" t="s">
         <v>128</v>
       </c>
-      <c r="AO4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>128</v>
-      </c>
       <c r="AT4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW4" t="s">
         <v>128</v>
@@ -1680,29 +2584,62 @@
       <c r="AY4" t="s">
         <v>128</v>
       </c>
-      <c r="BA4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>128</v>
+      <c r="AZ4" t="s">
+        <v>127</v>
       </c>
       <c r="BD4" t="s">
         <v>128</v>
       </c>
       <c r="BF4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BH4" t="s">
         <v>128</v>
       </c>
+      <c r="BI4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -1757,9 +2694,6 @@
       <c r="U5" t="s">
         <v>127</v>
       </c>
-      <c r="V5" t="s">
-        <v>128</v>
-      </c>
       <c r="W5" t="s">
         <v>128</v>
       </c>
@@ -1770,22 +2704,16 @@
         <v>128</v>
       </c>
       <c r="Z5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD5" t="s">
         <v>127</v>
       </c>
       <c r="AE5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI5" t="s">
         <v>128</v>
@@ -1793,53 +2721,26 @@
       <c r="AJ5" t="s">
         <v>127</v>
       </c>
-      <c r="AK5" t="s">
-        <v>128</v>
-      </c>
       <c r="AL5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM5" t="s">
         <v>128</v>
       </c>
       <c r="AN5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS5" t="s">
         <v>128</v>
       </c>
       <c r="AT5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW5" t="s">
         <v>128</v>
       </c>
       <c r="AX5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>127</v>
       </c>
       <c r="BD5" t="s">
         <v>128</v>
@@ -1847,14 +2748,53 @@
       <c r="BF5" t="s">
         <v>128</v>
       </c>
-      <c r="BG5" t="s">
-        <v>128</v>
-      </c>
       <c r="BH5" t="s">
         <v>128</v>
       </c>
+      <c r="BI5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -1912,104 +2852,107 @@
       <c r="U6" t="s">
         <v>127</v>
       </c>
-      <c r="V6" t="s">
-        <v>127</v>
-      </c>
       <c r="W6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z6" t="s">
         <v>128</v>
       </c>
-      <c r="AB6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AA6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD6" t="s">
         <v>128</v>
       </c>
       <c r="AE6" t="s">
         <v>127</v>
       </c>
-      <c r="AF6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>128</v>
-      </c>
       <c r="AI6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS6" t="s">
         <v>128</v>
       </c>
       <c r="AT6" t="s">
         <v>128</v>
       </c>
-      <c r="AU6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>128</v>
-      </c>
       <c r="AW6" t="s">
         <v>128</v>
       </c>
       <c r="AX6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>128</v>
       </c>
       <c r="BD6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF6" t="s">
         <v>128</v>
       </c>
-      <c r="BG6" t="s">
-        <v>128</v>
-      </c>
       <c r="BH6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL6" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -2067,9 +3010,6 @@
       <c r="U7" t="s">
         <v>127</v>
       </c>
-      <c r="V7" t="s">
-        <v>128</v>
-      </c>
       <c r="W7" t="s">
         <v>128</v>
       </c>
@@ -2082,89 +3022,95 @@
       <c r="Z7" t="s">
         <v>128</v>
       </c>
-      <c r="AB7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="AA7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD7" t="s">
         <v>127</v>
       </c>
       <c r="AE7" t="s">
         <v>127</v>
       </c>
-      <c r="AF7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>127</v>
-      </c>
       <c r="AI7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AJ7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK7" t="s">
         <v>128</v>
       </c>
       <c r="AL7" t="s">
         <v>127</v>
       </c>
-      <c r="AM7" t="s">
-        <v>127</v>
-      </c>
       <c r="AN7" t="s">
         <v>128</v>
       </c>
-      <c r="AO7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>128</v>
-      </c>
       <c r="AT7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW7" t="s">
         <v>128</v>
       </c>
       <c r="AX7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AY7" t="s">
         <v>128</v>
       </c>
-      <c r="BA7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC7" t="s">
+      <c r="AZ7" t="s">
         <v>128</v>
       </c>
       <c r="BD7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BF7" t="s">
         <v>128</v>
       </c>
-      <c r="BG7" t="s">
-        <v>128</v>
-      </c>
       <c r="BH7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -2222,9 +3168,6 @@
       <c r="U8" t="s">
         <v>127</v>
       </c>
-      <c r="V8" t="s">
-        <v>127</v>
-      </c>
       <c r="W8" t="s">
         <v>127</v>
       </c>
@@ -2237,59 +3180,32 @@
       <c r="Z8" t="s">
         <v>127</v>
       </c>
-      <c r="AB8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD8" t="s">
         <v>128</v>
       </c>
       <c r="AE8" t="s">
         <v>127</v>
       </c>
-      <c r="AF8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>127</v>
-      </c>
       <c r="AI8" t="s">
         <v>127</v>
       </c>
       <c r="AJ8" t="s">
         <v>127</v>
       </c>
-      <c r="AK8" t="s">
-        <v>127</v>
-      </c>
       <c r="AL8" t="s">
         <v>127</v>
       </c>
-      <c r="AM8" t="s">
-        <v>127</v>
-      </c>
       <c r="AN8" t="s">
         <v>127</v>
       </c>
-      <c r="AO8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>127</v>
-      </c>
       <c r="AT8" t="s">
         <v>127</v>
       </c>
-      <c r="AU8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>127</v>
-      </c>
       <c r="AW8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX8" t="s">
         <v>127</v>
@@ -2297,32 +3213,65 @@
       <c r="AY8" t="s">
         <v>127</v>
       </c>
-      <c r="BA8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>127</v>
+      <c r="AZ8" t="s">
+        <v>128</v>
       </c>
       <c r="BD8" t="s">
         <v>127</v>
       </c>
-      <c r="BE8" t="s">
-        <v>127</v>
-      </c>
       <c r="BF8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BH8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2380,95 +3329,98 @@
       <c r="U9" t="s">
         <v>127</v>
       </c>
-      <c r="V9" t="s">
-        <v>27</v>
-      </c>
       <c r="W9" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="Z9" t="s">
         <v>27</v>
       </c>
-      <c r="AB9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD9" t="s">
         <v>127</v>
       </c>
       <c r="AE9" t="s">
         <v>127</v>
       </c>
-      <c r="AF9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>128</v>
-      </c>
       <c r="AI9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL9" t="s">
         <v>128</v>
       </c>
       <c r="AN9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV9" t="s">
         <v>128</v>
       </c>
       <c r="AW9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX9" t="s">
         <v>127</v>
       </c>
       <c r="AY9" t="s">
         <v>127</v>
       </c>
-      <c r="BA9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC9" t="s">
+      <c r="AZ9" t="s">
         <v>127</v>
       </c>
       <c r="BD9" t="s">
         <v>127</v>
       </c>
       <c r="BF9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BH9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -2526,74 +3478,44 @@
       <c r="U10" t="s">
         <v>127</v>
       </c>
-      <c r="V10" t="s">
-        <v>128</v>
-      </c>
       <c r="W10" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="Z10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD10" t="s">
         <v>128</v>
       </c>
       <c r="AE10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM10" t="s">
         <v>128</v>
       </c>
       <c r="AN10" t="s">
         <v>127</v>
       </c>
-      <c r="AO10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>128</v>
-      </c>
       <c r="AT10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV10" t="s">
         <v>127</v>
       </c>
       <c r="AW10" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="s">
         <v>127</v>
@@ -2601,29 +3523,62 @@
       <c r="AY10" t="s">
         <v>127</v>
       </c>
-      <c r="BA10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE10" t="s">
+      <c r="AZ10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD10" t="s">
         <v>128</v>
       </c>
       <c r="BF10" t="s">
         <v>128</v>
       </c>
-      <c r="BG10" t="s">
-        <v>128</v>
-      </c>
       <c r="BH10" t="s">
         <v>128</v>
       </c>
+      <c r="BI10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2678,9 +3633,6 @@
       <c r="U11" t="s">
         <v>127</v>
       </c>
-      <c r="V11" t="s">
-        <v>128</v>
-      </c>
       <c r="W11" t="s">
         <v>128</v>
       </c>
@@ -2688,64 +3640,37 @@
         <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="Z11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11" t="s">
         <v>128</v>
       </c>
       <c r="AE11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="s">
         <v>127</v>
       </c>
       <c r="AJ11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="AL11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM11" t="s">
         <v>128</v>
       </c>
       <c r="AN11" t="s">
         <v>127</v>
       </c>
-      <c r="AO11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>128</v>
-      </c>
       <c r="AT11" t="s">
         <v>127</v>
       </c>
-      <c r="AU11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>127</v>
-      </c>
       <c r="AW11" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="s">
         <v>127</v>
@@ -2753,26 +3678,59 @@
       <c r="AY11" t="s">
         <v>127</v>
       </c>
-      <c r="BA11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>128</v>
+      <c r="AZ11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>127</v>
       </c>
       <c r="BF11" t="s">
         <v>128</v>
       </c>
-      <c r="BG11" t="s">
-        <v>128</v>
-      </c>
       <c r="BH11" t="s">
         <v>128</v>
       </c>
+      <c r="BI11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -2827,74 +3785,44 @@
       <c r="U12" t="s">
         <v>127</v>
       </c>
-      <c r="V12" t="s">
-        <v>127</v>
-      </c>
       <c r="W12" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="Z12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD12" t="s">
         <v>128</v>
       </c>
       <c r="AE12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="AL12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN12" t="s">
         <v>127</v>
       </c>
-      <c r="AO12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>128</v>
-      </c>
       <c r="AT12" t="s">
         <v>127</v>
       </c>
-      <c r="AU12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>128</v>
-      </c>
       <c r="AW12" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="AX12" t="s">
         <v>127</v>
@@ -2902,26 +3830,59 @@
       <c r="AY12" t="s">
         <v>127</v>
       </c>
-      <c r="BA12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>128</v>
+      <c r="AZ12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>127</v>
       </c>
       <c r="BF12" t="s">
         <v>128</v>
       </c>
-      <c r="BG12" t="s">
-        <v>128</v>
-      </c>
       <c r="BH12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -2979,69 +3940,39 @@
       <c r="U13" t="s">
         <v>127</v>
       </c>
-      <c r="V13" t="s">
-        <v>127</v>
-      </c>
       <c r="W13" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="X13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD13" t="s">
         <v>128</v>
       </c>
       <c r="AE13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH13" t="s">
         <v>127</v>
       </c>
       <c r="AI13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK13" t="s">
         <v>128</v>
       </c>
       <c r="AL13" t="s">
         <v>127</v>
       </c>
-      <c r="AM13" t="s">
-        <v>127</v>
-      </c>
       <c r="AN13" t="s">
         <v>127</v>
       </c>
-      <c r="AO13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>128</v>
-      </c>
       <c r="AT13" t="s">
         <v>127</v>
       </c>
-      <c r="AU13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>128</v>
-      </c>
       <c r="AW13" t="s">
         <v>128</v>
       </c>
@@ -3051,32 +3982,62 @@
       <c r="AY13" t="s">
         <v>127</v>
       </c>
-      <c r="BA13" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC13" t="s">
+      <c r="AZ13" t="s">
         <v>128</v>
       </c>
       <c r="BD13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BG13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BH13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -3134,14 +4095,11 @@
       <c r="U14" t="s">
         <v>128</v>
       </c>
-      <c r="V14" t="s">
-        <v>128</v>
-      </c>
       <c r="W14" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="X14" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="s">
         <v>128</v>
@@ -3149,50 +4107,32 @@
       <c r="Z14" t="s">
         <v>128</v>
       </c>
-      <c r="AB14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM14" t="s">
+      <c r="AA14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE14" t="s">
         <v>127</v>
       </c>
       <c r="AN14" t="s">
         <v>127</v>
       </c>
-      <c r="AO14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV14" t="s">
+      <c r="AT14" t="s">
         <v>128</v>
       </c>
       <c r="AW14" t="s">
         <v>128</v>
       </c>
-      <c r="BA14" t="s">
+      <c r="AX14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>127</v>
       </c>
       <c r="BB14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BC14" t="s">
         <v>128</v>
@@ -3200,17 +4140,38 @@
       <c r="BD14" t="s">
         <v>128</v>
       </c>
-      <c r="BE14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH14" t="s">
+      <c r="BG14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3265,49 +4226,28 @@
       <c r="U15" t="s">
         <v>127</v>
       </c>
-      <c r="V15" t="s">
-        <v>27</v>
-      </c>
       <c r="W15" t="s">
         <v>27</v>
       </c>
       <c r="X15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT15" t="s">
         <v>128</v>
       </c>
       <c r="AW15" t="s">
         <v>128</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="AY15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>127</v>
       </c>
       <c r="BB15" t="s">
@@ -3319,17 +4259,38 @@
       <c r="BD15" t="s">
         <v>128</v>
       </c>
-      <c r="BE15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH15" t="s">
+      <c r="BG15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -3384,86 +4345,86 @@
       <c r="U16" t="s">
         <v>160</v>
       </c>
-      <c r="V16" t="s">
-        <v>27</v>
-      </c>
       <c r="W16" t="s">
         <v>27</v>
       </c>
-      <c r="AB16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>128</v>
+      <c r="X16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>127</v>
       </c>
       <c r="AK16" t="s">
         <v>127</v>
       </c>
       <c r="AL16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM16" t="s">
         <v>127</v>
       </c>
       <c r="AN16" t="s">
         <v>127</v>
       </c>
-      <c r="AO16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>127</v>
-      </c>
       <c r="AT16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV16" t="s">
         <v>128</v>
       </c>
       <c r="AW16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>128</v>
       </c>
       <c r="BB16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BC16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -3521,41 +4482,41 @@
       <c r="U17" t="s">
         <v>127</v>
       </c>
-      <c r="V17" t="s">
-        <v>27</v>
-      </c>
       <c r="W17" t="s">
         <v>27</v>
       </c>
-      <c r="AB17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV17" t="s">
+      <c r="X17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP17" t="s">
         <v>159</v>
       </c>
-      <c r="AW17" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI17" t="s">
+      <c r="BT17" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3610,47 +4571,47 @@
       <c r="U18" t="s">
         <v>127</v>
       </c>
-      <c r="V18" t="s">
-        <v>27</v>
-      </c>
       <c r="W18" t="s">
         <v>27</v>
       </c>
-      <c r="AB18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA18" t="s">
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -3708,14 +4669,11 @@
       <c r="U19" t="s">
         <v>127</v>
       </c>
-      <c r="V19" t="s">
-        <v>128</v>
-      </c>
       <c r="W19" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="X19" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="s">
         <v>128</v>
@@ -3723,38 +4681,41 @@
       <c r="Z19" t="s">
         <v>128</v>
       </c>
-      <c r="AB19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC19" t="s">
+      <c r="AA19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD19" t="s">
         <v>128</v>
       </c>
       <c r="AE19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AJ19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3809,32 +4770,32 @@
       <c r="U20" t="s">
         <v>127</v>
       </c>
-      <c r="W20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>128</v>
+      <c r="X20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
       </c>
       <c r="AL20" t="s">
         <v>128</v>
       </c>
+      <c r="AN20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>128</v>
+      </c>
       <c r="AW20" t="s">
         <v>128</v>
       </c>
+      <c r="AX20" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -3892,9 +4853,6 @@
       <c r="U21" t="s">
         <v>127</v>
       </c>
-      <c r="V21" t="s">
-        <v>128</v>
-      </c>
       <c r="W21" t="s">
         <v>128</v>
       </c>
@@ -3907,47 +4865,57 @@
       <c r="Z21" t="s">
         <v>128</v>
       </c>
-      <c r="AI21" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA21" t="s">
+      <c r="AA21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY21" s="1" t="s">
         <v>127</v>
       </c>
       <c r="BB21" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BI21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
+      <c r="BL21" s="1"/>
+      <c r="BM21" s="1"/>
+      <c r="BN21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO21" s="1"/>
+      <c r="BT21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4002,44 +4970,46 @@
       <c r="U22" t="s">
         <v>127</v>
       </c>
-      <c r="W22" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI22" t="s">
+      <c r="X22" t="s">
         <v>127</v>
       </c>
       <c r="AN22" t="s">
         <v>127</v>
       </c>
-      <c r="AO22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV22" t="s">
+      <c r="AY22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP22" t="s">
         <v>159</v>
       </c>
-      <c r="AW22" t="s">
-        <v>128</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ22" s="3" t="s">
+      <c r="BT22" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -4094,47 +5064,3515 @@
       <c r="U23" t="s">
         <v>127</v>
       </c>
-      <c r="X23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG23" t="s">
+      <c r="Y23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH23" t="s">
         <v>127</v>
       </c>
       <c r="AI23" t="s">
         <v>127</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR23" t="s">
+      <c r="AK23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX23" t="s">
         <v>127</v>
       </c>
       <c r="AZ23" t="s">
         <v>127</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>128</v>
+      </c>
+      <c r="S24" t="s">
+        <v>128</v>
+      </c>
+      <c r="U24" t="s">
+        <v>128</v>
+      </c>
+      <c r="W24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>127</v>
+      </c>
+      <c r="U25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s">
+        <v>243</v>
+      </c>
+      <c r="N26" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="s">
+        <v>260</v>
+      </c>
+      <c r="N27" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>276</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" t="s">
+        <v>243</v>
+      </c>
+      <c r="N28" t="s">
+        <v>278</v>
+      </c>
+      <c r="O28" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>128</v>
+      </c>
+      <c r="T28" t="s">
+        <v>127</v>
+      </c>
+      <c r="U28" t="s">
+        <v>127</v>
+      </c>
+      <c r="V28" t="s">
+        <v>128</v>
+      </c>
+      <c r="W28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>243</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>243</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" t="s">
+        <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" t="s">
+        <v>281</v>
+      </c>
+      <c r="O29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="S29" t="s">
+        <v>127</v>
+      </c>
+      <c r="U29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" t="s">
+        <v>302</v>
+      </c>
+      <c r="O30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>128</v>
+      </c>
+      <c r="S30" t="s">
+        <v>128</v>
+      </c>
+      <c r="T30" t="s">
+        <v>128</v>
+      </c>
+      <c r="U30" t="s">
+        <v>128</v>
+      </c>
+      <c r="V30" t="s">
+        <v>128</v>
+      </c>
+      <c r="W30" t="s">
+        <v>128</v>
+      </c>
+      <c r="X30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU30" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>305</v>
+      </c>
+      <c r="M31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P31" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" t="s">
+        <v>127</v>
+      </c>
+      <c r="U31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ31" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA31" s="1"/>
+      <c r="BB31" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC31" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP31" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI31" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CY31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>307</v>
+      </c>
+      <c r="B32" t="s">
+        <v>308</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>310</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>176</v>
+      </c>
+      <c r="O32" t="s">
+        <v>126</v>
+      </c>
+      <c r="P32" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA32" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB32" t="s">
+        <v>128</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM32" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA32" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" t="s">
+        <v>342</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>350</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>337</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ33" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>326</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" t="s">
+        <v>342</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>350</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>338</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB34" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>351</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>123</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="T35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI35" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM35" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA35" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB35" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD35" t="s">
+        <v>127</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>352</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>123</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="T36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR36" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK36" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM36" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>353</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" t="s">
+        <v>27</v>
+      </c>
+      <c r="P37" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>354</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>152</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK38" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL38" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR38" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY38" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI38" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK38" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR38" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD38" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DG38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>344</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>354</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>339</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+      <c r="T39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY39" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK39" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR39" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA39" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD39" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE39" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF39" t="s">
+        <v>27</v>
+      </c>
+      <c r="DG39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P40" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>27</v>
+      </c>
+      <c r="T40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK40" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB40" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI40" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK40" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR40" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA40" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD40" t="s">
+        <v>127</v>
+      </c>
+      <c r="DE40" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF40" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>323</v>
+      </c>
+      <c r="B41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>346</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" t="s">
+        <v>340</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="P41" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+      <c r="T41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR41" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA41" t="s">
+        <v>27</v>
+      </c>
+      <c r="DB41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD41" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE41" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF41" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" t="s">
+        <v>334</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK42" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ42" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR42" t="s">
+        <v>27</v>
+      </c>
+      <c r="DA42" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD42" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE42" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF42" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>323</v>
+      </c>
+      <c r="B43" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" t="s">
+        <v>123</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="P43" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK43" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB43" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR43" t="s">
+        <v>27</v>
+      </c>
+      <c r="DA43" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD43" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE43" t="s">
+        <v>27</v>
+      </c>
+      <c r="DF43" t="s">
+        <v>27</v>
+      </c>
+      <c r="DG43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" t="s">
+        <v>341</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK44" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI44" t="s">
+        <v>27</v>
+      </c>
+      <c r="CK44" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CR44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DA44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DB44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DE44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DF44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DG44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>394</v>
+      </c>
+      <c r="B45" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>398</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>399</v>
+      </c>
+      <c r="M45" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" t="s">
+        <v>396</v>
+      </c>
+      <c r="O45" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U45" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ45" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="DB45" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:111" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" t="s">
+        <v>401</v>
+      </c>
+      <c r="C46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N46" t="s">
+        <v>405</v>
+      </c>
+      <c r="O46" t="s">
+        <v>126</v>
+      </c>
+      <c r="P46" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" t="s">
+        <v>128</v>
+      </c>
+      <c r="U46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>164</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY46" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ46" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" t="s">
+        <v>403</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" t="s">
+        <v>412</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>411</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" t="s">
+        <v>153</v>
+      </c>
+      <c r="O47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>128</v>
+      </c>
+      <c r="U47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>400</v>
+      </c>
+      <c r="B48" t="s">
+        <v>401</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>415</v>
+      </c>
+      <c r="M48" t="s">
+        <v>243</v>
+      </c>
+      <c r="N48" t="s">
+        <v>410</v>
+      </c>
+      <c r="O48" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="U48" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>243</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>243</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>243</v>
+      </c>
+      <c r="BU48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BZ48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA48" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
+++ b/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC736B1F-12E2-5247-8399-9DA1B870F845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608EAF9-6826-B84E-9930-819287D73CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="3500" windowWidth="35660" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="8280" windowWidth="35660" windowHeight="6060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="424">
   <si>
     <t>PMID</t>
   </si>
@@ -1281,6 +1281,30 @@
   </si>
   <si>
     <t>NM_003242.6(TGFBR2):c.1336G&gt;A (p.Asp446Asn)</t>
+  </si>
+  <si>
+    <t>PMID:21949523</t>
+  </si>
+  <si>
+    <t>A sporadic case of Loeys-Dietz syndrome type I with two novel mutations of the TGFBR2 gene</t>
+  </si>
+  <si>
+    <t>NM_003242.6:c.1526_1528delinsTCT=NP_003233.4:p.(Gly509_Ile510delinsValPhe)</t>
+  </si>
+  <si>
+    <t>c.1526_1528delinsTCT</t>
+  </si>
+  <si>
+    <t>Metatarsus adductus</t>
+  </si>
+  <si>
+    <t>HP:0001840</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>HP:0000545</t>
   </si>
 </sst>
 </file>
@@ -1682,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DG48"/>
+  <dimension ref="A1:DI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="A2:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1695,7 +1719,7 @@
     <col min="10" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1865,172 +1889,178 @@
         <v>48</v>
       </c>
       <c r="BE1" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="BF1" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>376</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="CA1" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CO1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CP1" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CQ1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="CP1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="CQ1" s="3" t="s">
+      <c r="CS1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="CR1" s="3" t="s">
+      <c r="CT1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CU1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CW1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CX1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CY1" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CZ1" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="DA1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2200,172 +2230,178 @@
         <v>85</v>
       </c>
       <c r="BE2" t="s">
+        <v>421</v>
+      </c>
+      <c r="BF2" t="s">
         <v>259</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>377</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>257</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>80</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>86</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>87</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>375</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>373</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>371</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>369</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>367</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>89</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>379</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>407</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>220</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>90</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>291</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>91</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>92</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
+        <v>423</v>
+      </c>
+      <c r="CA2" t="s">
         <v>207</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CB2" t="s">
         <v>361</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CC2" t="s">
         <v>93</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CD2" t="s">
         <v>267</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CE2" t="s">
         <v>94</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CF2" t="s">
         <v>363</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CG2" t="s">
         <v>269</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CH2" t="s">
         <v>301</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CI2" t="s">
         <v>95</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
         <v>96</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CK2" t="s">
         <v>101</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CL2" t="s">
         <v>97</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CM2" t="s">
         <v>98</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CN2" t="s">
         <v>99</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CO2" t="s">
         <v>100</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CP2" t="s">
         <v>315</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CQ2" t="s">
         <v>194</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CR2" t="s">
         <v>222</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CS2" t="s">
         <v>383</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CT2" t="s">
         <v>385</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CU2" t="s">
         <v>228</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CV2" t="s">
         <v>234</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="CW2" t="s">
         <v>255</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="CX2" t="s">
         <v>262</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="CY2" t="s">
         <v>289</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CZ2" t="s">
         <v>297</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DA2" t="s">
         <v>299</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DB2" t="s">
         <v>304</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DC2" t="s">
         <v>313</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DD2" t="s">
         <v>317</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DE2" t="s">
         <v>319</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DF2" t="s">
         <v>393</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DG2" t="s">
         <v>381</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DH2" t="s">
         <v>389</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DI2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2465,26 +2501,26 @@
       <c r="AX3" t="s">
         <v>27</v>
       </c>
-      <c r="BF3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>27</v>
+      <c r="BG3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>128</v>
       </c>
       <c r="BX3" t="s">
         <v>27</v>
       </c>
-      <c r="CA3" t="s">
+      <c r="BY3" t="s">
         <v>27</v>
       </c>
       <c r="CC3" t="s">
         <v>27</v>
       </c>
+      <c r="CE3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2590,11 +2626,8 @@
       <c r="BD4" t="s">
         <v>128</v>
       </c>
-      <c r="BF4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>128</v>
+      <c r="BG4" t="s">
+        <v>127</v>
       </c>
       <c r="BI4" t="s">
         <v>128</v>
@@ -2602,44 +2635,47 @@
       <c r="BJ4" t="s">
         <v>128</v>
       </c>
-      <c r="BO4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>127</v>
+      <c r="BK4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>128</v>
       </c>
       <c r="BX4" t="s">
-        <v>128</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>128</v>
       </c>
       <c r="CC4" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH4" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI4" t="s">
         <v>128</v>
       </c>
       <c r="CJ4" t="s">
         <v>128</v>
       </c>
-      <c r="CK4" t="s">
-        <v>128</v>
-      </c>
       <c r="CL4" t="s">
         <v>128</v>
       </c>
+      <c r="CM4" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2745,10 +2781,7 @@
       <c r="BD5" t="s">
         <v>128</v>
       </c>
-      <c r="BF5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH5" t="s">
+      <c r="BG5" t="s">
         <v>128</v>
       </c>
       <c r="BI5" t="s">
@@ -2757,44 +2790,47 @@
       <c r="BJ5" t="s">
         <v>128</v>
       </c>
-      <c r="BO5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW5" t="s">
+      <c r="BK5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV5" t="s">
         <v>128</v>
       </c>
       <c r="BX5" t="s">
         <v>128</v>
       </c>
-      <c r="CA5" t="s">
+      <c r="BY5" t="s">
         <v>128</v>
       </c>
       <c r="CC5" t="s">
         <v>128</v>
       </c>
-      <c r="CG5" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH5" t="s">
+      <c r="CE5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI5" t="s">
         <v>128</v>
       </c>
       <c r="CJ5" t="s">
         <v>128</v>
       </c>
-      <c r="CK5" t="s">
-        <v>128</v>
-      </c>
       <c r="CL5" t="s">
         <v>128</v>
       </c>
+      <c r="CM5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2903,56 +2939,56 @@
       <c r="BD6" t="s">
         <v>127</v>
       </c>
-      <c r="BF6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>127</v>
+      <c r="BG6" t="s">
+        <v>128</v>
       </c>
       <c r="BI6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BJ6" t="s">
         <v>128</v>
       </c>
-      <c r="BO6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW6" t="s">
+      <c r="BK6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV6" t="s">
         <v>128</v>
       </c>
       <c r="BX6" t="s">
         <v>128</v>
       </c>
-      <c r="CA6" t="s">
-        <v>127</v>
+      <c r="BY6" t="s">
+        <v>128</v>
       </c>
       <c r="CC6" t="s">
         <v>127</v>
       </c>
-      <c r="CG6" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH6" t="s">
+      <c r="CE6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI6" t="s">
         <v>128</v>
       </c>
       <c r="CJ6" t="s">
         <v>128</v>
       </c>
-      <c r="CK6" t="s">
-        <v>128</v>
-      </c>
       <c r="CL6" t="s">
         <v>128</v>
       </c>
+      <c r="CM6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -3061,56 +3097,56 @@
       <c r="BD7" t="s">
         <v>127</v>
       </c>
-      <c r="BF7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>127</v>
+      <c r="BG7" t="s">
+        <v>128</v>
       </c>
       <c r="BI7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BJ7" t="s">
         <v>128</v>
       </c>
-      <c r="BO7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW7" t="s">
+      <c r="BK7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV7" t="s">
         <v>128</v>
       </c>
       <c r="BX7" t="s">
         <v>128</v>
       </c>
-      <c r="CA7" t="s">
-        <v>127</v>
+      <c r="BY7" t="s">
+        <v>128</v>
       </c>
       <c r="CC7" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI7" t="s">
         <v>128</v>
       </c>
       <c r="CJ7" t="s">
         <v>128</v>
       </c>
-      <c r="CK7" t="s">
-        <v>128</v>
-      </c>
       <c r="CL7" t="s">
         <v>128</v>
       </c>
+      <c r="CM7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3219,11 +3255,8 @@
       <c r="BD8" t="s">
         <v>127</v>
       </c>
-      <c r="BF8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>127</v>
+      <c r="BG8" t="s">
+        <v>128</v>
       </c>
       <c r="BI8" t="s">
         <v>127</v>
@@ -3231,31 +3264,28 @@
       <c r="BJ8" t="s">
         <v>127</v>
       </c>
-      <c r="BO8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>127</v>
+      <c r="BK8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>128</v>
       </c>
       <c r="BX8" t="s">
         <v>127</v>
       </c>
-      <c r="CA8" t="s">
+      <c r="BY8" t="s">
         <v>127</v>
       </c>
       <c r="CC8" t="s">
         <v>127</v>
       </c>
-      <c r="CG8" t="s">
-        <v>127</v>
-      </c>
-      <c r="CH8" t="s">
+      <c r="CE8" t="s">
         <v>127</v>
       </c>
       <c r="CI8" t="s">
@@ -3268,10 +3298,16 @@
         <v>127</v>
       </c>
       <c r="CL8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3374,53 +3410,53 @@
       <c r="BD9" t="s">
         <v>127</v>
       </c>
-      <c r="BF9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH9" t="s">
+      <c r="BG9" t="s">
         <v>128</v>
       </c>
       <c r="BI9" t="s">
         <v>128</v>
       </c>
-      <c r="BO9" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>127</v>
+      <c r="BJ9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>128</v>
       </c>
       <c r="BX9" t="s">
         <v>127</v>
       </c>
-      <c r="CA9" t="s">
+      <c r="BY9" t="s">
         <v>127</v>
       </c>
       <c r="CC9" t="s">
-        <v>27</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>127</v>
-      </c>
-      <c r="CH9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>27</v>
+      </c>
+      <c r="CI9" t="s">
         <v>127</v>
       </c>
       <c r="CJ9" t="s">
         <v>127</v>
       </c>
-      <c r="CK9" t="s">
-        <v>127</v>
-      </c>
       <c r="CL9" t="s">
         <v>127</v>
       </c>
+      <c r="CM9" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -3529,10 +3565,7 @@
       <c r="BD10" t="s">
         <v>128</v>
       </c>
-      <c r="BF10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH10" t="s">
+      <c r="BG10" t="s">
         <v>128</v>
       </c>
       <c r="BI10" t="s">
@@ -3541,44 +3574,47 @@
       <c r="BJ10" t="s">
         <v>128</v>
       </c>
-      <c r="BO10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>127</v>
+      <c r="BK10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>128</v>
       </c>
       <c r="BX10" t="s">
         <v>127</v>
       </c>
-      <c r="CA10" t="s">
+      <c r="BY10" t="s">
         <v>127</v>
       </c>
       <c r="CC10" t="s">
         <v>127</v>
       </c>
-      <c r="CG10" t="s">
-        <v>128</v>
+      <c r="CE10" t="s">
+        <v>127</v>
       </c>
       <c r="CI10" t="s">
         <v>128</v>
       </c>
-      <c r="CJ10" t="s">
-        <v>128</v>
-      </c>
       <c r="CK10" t="s">
         <v>128</v>
       </c>
       <c r="CL10" t="s">
         <v>128</v>
       </c>
+      <c r="CM10" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -3684,53 +3720,53 @@
       <c r="BD11" t="s">
         <v>127</v>
       </c>
-      <c r="BF11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH11" t="s">
+      <c r="BG11" t="s">
         <v>128</v>
       </c>
       <c r="BI11" t="s">
         <v>128</v>
       </c>
       <c r="BJ11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>128</v>
       </c>
       <c r="BX11" t="s">
         <v>127</v>
       </c>
-      <c r="CA11" t="s">
+      <c r="BY11" t="s">
         <v>127</v>
       </c>
       <c r="CC11" t="s">
         <v>127</v>
       </c>
-      <c r="CG11" t="s">
-        <v>128</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>128</v>
-      </c>
-      <c r="CK11" t="s">
+      <c r="CE11" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI11" t="s">
         <v>128</v>
       </c>
       <c r="CL11" t="s">
         <v>128</v>
       </c>
+      <c r="CM11" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3836,53 +3872,53 @@
       <c r="BD12" t="s">
         <v>127</v>
       </c>
-      <c r="BF12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>127</v>
+      <c r="BG12" t="s">
+        <v>128</v>
       </c>
       <c r="BI12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BJ12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>128</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>128</v>
       </c>
       <c r="BX12" t="s">
         <v>127</v>
       </c>
-      <c r="CA12" t="s">
+      <c r="BY12" t="s">
         <v>127</v>
       </c>
       <c r="CC12" t="s">
         <v>127</v>
       </c>
-      <c r="CG12" t="s">
-        <v>128</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>128</v>
-      </c>
-      <c r="CK12" t="s">
+      <c r="CE12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI12" t="s">
         <v>128</v>
       </c>
       <c r="CL12" t="s">
         <v>128</v>
       </c>
+      <c r="CM12" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -3988,40 +4024,34 @@
       <c r="BD13" t="s">
         <v>127</v>
       </c>
-      <c r="BG13" t="s">
-        <v>127</v>
-      </c>
       <c r="BH13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BI13" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>128</v>
       </c>
       <c r="BW13" t="s">
         <v>127</v>
       </c>
-      <c r="BZ13" t="s">
+      <c r="BX13" t="s">
         <v>127</v>
       </c>
       <c r="CB13" t="s">
-        <v>128</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG13" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD13" t="s">
         <v>128</v>
       </c>
       <c r="CH13" t="s">
@@ -4034,10 +4064,16 @@
         <v>128</v>
       </c>
       <c r="CK13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -4140,25 +4176,19 @@
       <c r="BD14" t="s">
         <v>128</v>
       </c>
-      <c r="BG14" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>127</v>
+      <c r="BH14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>128</v>
       </c>
       <c r="CB14" t="s">
-        <v>128</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG14" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD14" t="s">
         <v>128</v>
       </c>
       <c r="CH14" t="s">
@@ -4167,11 +4197,17 @@
       <c r="CI14" t="s">
         <v>128</v>
       </c>
+      <c r="CJ14" t="s">
+        <v>128</v>
+      </c>
       <c r="CK14" t="s">
         <v>128</v>
       </c>
+      <c r="CM14" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -4259,38 +4295,38 @@
       <c r="BD15" t="s">
         <v>128</v>
       </c>
-      <c r="BG15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>127</v>
+      <c r="BH15" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>128</v>
       </c>
       <c r="CB15" t="s">
-        <v>128</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>128</v>
-      </c>
-      <c r="CG15" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD15" t="s">
         <v>128</v>
       </c>
       <c r="CH15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CI15" t="s">
         <v>128</v>
       </c>
+      <c r="CJ15" t="s">
+        <v>127</v>
+      </c>
       <c r="CK15" t="s">
         <v>128</v>
       </c>
+      <c r="CM15" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -4390,41 +4426,41 @@
       <c r="BD16" t="s">
         <v>127</v>
       </c>
-      <c r="BG16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ16" t="s">
+      <c r="BH16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW16" t="s">
         <v>127</v>
       </c>
       <c r="CB16" t="s">
         <v>127</v>
       </c>
-      <c r="CF16" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>128</v>
+      <c r="CD16" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>127</v>
       </c>
       <c r="CK16" t="s">
         <v>128</v>
       </c>
+      <c r="CM16" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -4500,23 +4536,23 @@
       <c r="AZ17" t="s">
         <v>127</v>
       </c>
-      <c r="BP17" t="s">
+      <c r="BQ17" t="s">
         <v>159</v>
       </c>
-      <c r="BT17" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>127</v>
-      </c>
-      <c r="CH17" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL17" t="s">
+      <c r="BU17" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN17" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -4598,20 +4634,20 @@
       <c r="BD18" t="s">
         <v>128</v>
       </c>
-      <c r="BG18" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ18" t="s">
+      <c r="BH18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB18" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>172</v>
       </c>
@@ -4708,14 +4744,14 @@
       <c r="BD19" t="s">
         <v>127</v>
       </c>
-      <c r="BP19" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT19" t="s">
+      <c r="BQ19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -4791,11 +4827,11 @@
       <c r="AX20" t="s">
         <v>128</v>
       </c>
-      <c r="BT20" t="s">
+      <c r="BU20" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -4888,34 +4924,35 @@
       </c>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
-      <c r="BI21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ21" s="1"/>
+      <c r="BG21" s="1"/>
+      <c r="BJ21" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="BK21" s="1"/>
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
-      <c r="BN21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO21" s="1"/>
-      <c r="BT21" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>127</v>
+      <c r="BN21" s="1"/>
+      <c r="BO21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP21" s="1"/>
+      <c r="BU21" t="s">
+        <v>128</v>
       </c>
       <c r="CB21" t="s">
         <v>127</v>
       </c>
-      <c r="CK21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL21" t="s">
+      <c r="CD21" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN21" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4989,27 +5026,27 @@
       <c r="BC22" t="s">
         <v>128</v>
       </c>
-      <c r="BP22" t="s">
+      <c r="BQ22" t="s">
         <v>159</v>
       </c>
-      <c r="BT22" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ22" t="s">
-        <v>127</v>
-      </c>
-      <c r="CK22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM22" s="1"/>
+      <c r="BU22" t="s">
+        <v>128</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>127</v>
+      </c>
+      <c r="CM22" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="CN22" s="1" t="s">
         <v>127</v>
       </c>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>203</v>
       </c>
@@ -5100,14 +5137,14 @@
       <c r="BD23" t="s">
         <v>127</v>
       </c>
-      <c r="BG23" t="s">
-        <v>127</v>
-      </c>
-      <c r="BX23" t="s">
+      <c r="BH23" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY23" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>216</v>
       </c>
@@ -5183,32 +5220,32 @@
       <c r="BD24" t="s">
         <v>127</v>
       </c>
-      <c r="BG24" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ24" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG24" t="s">
-        <v>128</v>
-      </c>
-      <c r="CH24" t="s">
-        <v>128</v>
-      </c>
-      <c r="CK24" t="s">
-        <v>127</v>
-      </c>
-      <c r="CO24" t="s">
+      <c r="BH24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>128</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>127</v>
+      </c>
+      <c r="CQ24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>223</v>
       </c>
@@ -5272,20 +5309,20 @@
       <c r="BC25" t="s">
         <v>127</v>
       </c>
-      <c r="BG25" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>127</v>
-      </c>
-      <c r="CP25" t="s">
+      <c r="BH25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>230</v>
       </c>
@@ -5361,11 +5398,11 @@
       <c r="AX26" t="s">
         <v>128</v>
       </c>
-      <c r="CS26" t="s">
+      <c r="CU26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>244</v>
       </c>
@@ -5450,50 +5487,50 @@
       <c r="BD27" t="s">
         <v>127</v>
       </c>
-      <c r="BE27" t="s">
+      <c r="BF27" t="s">
         <v>260</v>
       </c>
-      <c r="BF27" t="s">
-        <v>127</v>
-      </c>
       <c r="BG27" t="s">
         <v>127</v>
       </c>
       <c r="BH27" t="s">
-        <v>128</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV27" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR27" t="s">
         <v>128</v>
       </c>
       <c r="BW27" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ27" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA27" t="s">
-        <v>128</v>
-      </c>
-      <c r="CD27" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI27" t="s">
-        <v>127</v>
-      </c>
-      <c r="CT27" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU27" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV27" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW27" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>263</v>
       </c>
@@ -5596,41 +5633,41 @@
       <c r="BD28" t="s">
         <v>243</v>
       </c>
-      <c r="BE28" t="s">
+      <c r="BF28" t="s">
         <v>243</v>
       </c>
-      <c r="BG28" t="s">
+      <c r="BH28" t="s">
         <v>243</v>
       </c>
-      <c r="BN28" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV28" t="s">
+      <c r="BO28" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU28" t="s">
         <v>128</v>
       </c>
       <c r="BW28" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ28" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA28" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX28" t="s">
         <v>127</v>
       </c>
       <c r="CB28" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>127</v>
       </c>
       <c r="CD28" t="s">
-        <v>127</v>
-      </c>
-      <c r="CT28" t="s">
+        <v>128</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>127</v>
+      </c>
+      <c r="CV28" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>279</v>
       </c>
@@ -5691,14 +5728,14 @@
       <c r="AK29" t="s">
         <v>127</v>
       </c>
-      <c r="BE29" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL29" t="s">
+      <c r="BF29" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>284</v>
       </c>
@@ -5810,11 +5847,8 @@
       <c r="BD30" t="s">
         <v>128</v>
       </c>
-      <c r="BU30" t="s">
-        <v>127</v>
-      </c>
       <c r="BV30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BW30" t="s">
         <v>128</v>
@@ -5822,44 +5856,47 @@
       <c r="BX30" t="s">
         <v>128</v>
       </c>
-      <c r="BZ30" t="s">
-        <v>128</v>
-      </c>
-      <c r="CA30" t="s">
+      <c r="BY30" t="s">
         <v>128</v>
       </c>
       <c r="CB30" t="s">
         <v>128</v>
       </c>
+      <c r="CC30" t="s">
+        <v>128</v>
+      </c>
       <c r="CD30" t="s">
         <v>128</v>
       </c>
-      <c r="CE30" t="s">
-        <v>127</v>
-      </c>
       <c r="CF30" t="s">
         <v>128</v>
       </c>
       <c r="CG30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH30" t="s">
         <v>128</v>
       </c>
       <c r="CI30" t="s">
-        <v>127</v>
-      </c>
-      <c r="CT30" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK30" t="s">
         <v>127</v>
       </c>
       <c r="CV30" t="s">
         <v>127</v>
       </c>
-      <c r="CW30" t="s">
-        <v>127</v>
-      </c>
       <c r="CX30" t="s">
         <v>127</v>
       </c>
+      <c r="CY30" t="s">
+        <v>127</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -5963,26 +6000,26 @@
       <c r="BD31" t="s">
         <v>128</v>
       </c>
-      <c r="BP31" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ31" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI31" t="s">
-        <v>128</v>
-      </c>
-      <c r="CL31" t="s">
-        <v>127</v>
-      </c>
-      <c r="CP31" t="s">
-        <v>127</v>
-      </c>
-      <c r="CY31" t="s">
+      <c r="BQ31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CK31" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>127</v>
+      </c>
+      <c r="CR31" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:108" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>307</v>
       </c>
@@ -6064,44 +6101,44 @@
       <c r="AX32" t="s">
         <v>128</v>
       </c>
-      <c r="BT32" t="s">
-        <v>128</v>
-      </c>
       <c r="BU32" t="s">
         <v>128</v>
       </c>
       <c r="BV32" t="s">
         <v>128</v>
       </c>
-      <c r="BZ32" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA32" t="s">
+      <c r="BW32" t="s">
         <v>128</v>
       </c>
       <c r="CB32" t="s">
+        <v>127</v>
+      </c>
+      <c r="CC32" t="s">
         <v>128</v>
       </c>
       <c r="CD32" t="s">
         <v>128</v>
       </c>
-      <c r="CE32" t="s">
-        <v>128</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>127</v>
-      </c>
-      <c r="CZ32" t="s">
-        <v>127</v>
-      </c>
-      <c r="DA32" t="s">
+      <c r="CF32" t="s">
+        <v>128</v>
+      </c>
+      <c r="CG32" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO32" t="s">
         <v>127</v>
       </c>
       <c r="DB32" t="s">
         <v>127</v>
       </c>
+      <c r="DC32" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD32" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="33" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -6198,11 +6235,8 @@
       <c r="BD33" t="s">
         <v>128</v>
       </c>
-      <c r="BF33" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>127</v>
+      <c r="BG33" t="s">
+        <v>128</v>
       </c>
       <c r="BK33" t="s">
         <v>127</v>
@@ -6219,62 +6253,65 @@
       <c r="BO33" t="s">
         <v>127</v>
       </c>
-      <c r="BQ33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY33" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>127</v>
+      <c r="BP33" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA33" t="s">
+        <v>128</v>
       </c>
       <c r="CB33" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC33" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI33" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE33" t="s">
         <v>128</v>
       </c>
       <c r="CK33" t="s">
         <v>128</v>
       </c>
-      <c r="CL33" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="CM33" t="s">
         <v>128</v>
       </c>
-      <c r="CQ33" t="s">
-        <v>127</v>
-      </c>
-      <c r="CR33" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA33" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB33" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="DD33" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE33" t="s">
+      <c r="CN33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS33" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD33" s="5" t="s">
         <v>127</v>
       </c>
       <c r="DF33" t="s">
         <v>128</v>
       </c>
       <c r="DG33" t="s">
+        <v>127</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>323</v>
       </c>
@@ -6371,73 +6408,67 @@
       <c r="BD34" t="s">
         <v>128</v>
       </c>
-      <c r="BF34" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ34" t="s">
+      <c r="BG34" t="s">
         <v>128</v>
       </c>
       <c r="BK34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BL34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM34" t="s">
         <v>128</v>
       </c>
       <c r="BN34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BO34" t="s">
         <v>127</v>
       </c>
-      <c r="BQ34" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ34" t="s">
-        <v>127</v>
+      <c r="BP34" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR34" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS34" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA34" t="s">
+        <v>128</v>
       </c>
       <c r="CB34" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI34" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>127</v>
       </c>
       <c r="CK34" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL34" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CM34" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ34" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR34" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA34" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB34" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DD34" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE34" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN34" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD34" s="5" t="s">
         <v>128</v>
       </c>
       <c r="DF34" t="s">
@@ -6446,8 +6477,14 @@
       <c r="DG34" t="s">
         <v>128</v>
       </c>
+      <c r="DH34" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI34" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="35" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -6544,17 +6581,14 @@
       <c r="BD35" t="s">
         <v>127</v>
       </c>
-      <c r="BF35" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>128</v>
+      <c r="BG35" t="s">
+        <v>127</v>
       </c>
       <c r="BK35" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL35" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="BM35" t="s">
         <v>128</v>
@@ -6563,64 +6597,67 @@
         <v>128</v>
       </c>
       <c r="BO35" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ35" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR35" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY35" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ35" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR35" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA35" t="s">
         <v>127</v>
       </c>
       <c r="CB35" t="s">
         <v>127</v>
       </c>
-      <c r="CC35" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI35" t="s">
+      <c r="CD35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE35" t="s">
         <v>128</v>
       </c>
       <c r="CK35" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL35" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CM35" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ35" t="s">
-        <v>127</v>
-      </c>
-      <c r="CR35" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA35" t="s">
-        <v>127</v>
-      </c>
-      <c r="DB35" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DD35" t="s">
-        <v>127</v>
-      </c>
-      <c r="DE35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN35" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS35" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC35" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD35" s="5" t="s">
         <v>128</v>
       </c>
       <c r="DF35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DG35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH35" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>323</v>
       </c>
@@ -6717,17 +6754,14 @@
       <c r="BD36" t="s">
         <v>128</v>
       </c>
-      <c r="BF36" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>128</v>
+      <c r="BG36" t="s">
+        <v>127</v>
       </c>
       <c r="BK36" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL36" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="BM36" t="s">
         <v>128</v>
@@ -6738,62 +6772,65 @@
       <c r="BO36" t="s">
         <v>128</v>
       </c>
-      <c r="BQ36" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR36" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ36" t="s">
-        <v>127</v>
+      <c r="BP36" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR36" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>128</v>
       </c>
       <c r="CB36" t="s">
         <v>127</v>
       </c>
-      <c r="CC36" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI36" t="s">
-        <v>128</v>
+      <c r="CD36" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>127</v>
       </c>
       <c r="CK36" t="s">
         <v>128</v>
       </c>
-      <c r="CL36" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="CM36" t="s">
         <v>128</v>
       </c>
-      <c r="CQ36" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR36" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA36" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB36" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DD36" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE36" t="s">
+      <c r="CN36" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD36" s="5" t="s">
         <v>128</v>
       </c>
       <c r="DF36" t="s">
         <v>128</v>
       </c>
       <c r="DG36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH36" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>323</v>
       </c>
@@ -6890,83 +6927,83 @@
       <c r="BD37" t="s">
         <v>128</v>
       </c>
-      <c r="BF37" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ37" t="s">
+      <c r="BG37" t="s">
         <v>128</v>
       </c>
       <c r="BK37" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL37" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="BM37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BN37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BO37" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ37" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ37" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA37" t="s">
         <v>127</v>
       </c>
       <c r="CB37" t="s">
         <v>127</v>
       </c>
-      <c r="CC37" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI37" t="s">
-        <v>127</v>
+      <c r="CD37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>128</v>
       </c>
       <c r="CK37" t="s">
         <v>127</v>
       </c>
-      <c r="CL37" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="CM37" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ37" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR37" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA37" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB37" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DD37" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE37" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN37" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD37" s="5" t="s">
         <v>128</v>
       </c>
       <c r="DF37" t="s">
         <v>128</v>
       </c>
       <c r="DG37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DH37" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>323</v>
       </c>
@@ -7063,20 +7100,17 @@
       <c r="BD38" t="s">
         <v>127</v>
       </c>
-      <c r="BF38" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ38" t="s">
+      <c r="BG38" t="s">
         <v>128</v>
       </c>
       <c r="BK38" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL38" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="BM38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BN38" t="s">
         <v>128</v>
@@ -7084,62 +7118,65 @@
       <c r="BO38" t="s">
         <v>128</v>
       </c>
-      <c r="BQ38" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR38" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY38" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ38" t="s">
-        <v>128</v>
+      <c r="BP38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR38" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS38" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA38" t="s">
+        <v>127</v>
       </c>
       <c r="CB38" t="s">
         <v>128</v>
       </c>
-      <c r="CC38" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI38" t="s">
-        <v>127</v>
+      <c r="CD38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE38" t="s">
+        <v>128</v>
       </c>
       <c r="CK38" t="s">
         <v>127</v>
       </c>
-      <c r="CL38" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="CM38" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ38" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR38" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA38" t="s">
-        <v>27</v>
-      </c>
-      <c r="DB38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="DD38" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE38" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS38" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT38" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="DF38" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="DG38" t="s">
         <v>27</v>
       </c>
+      <c r="DH38" t="s">
+        <v>27</v>
+      </c>
+      <c r="DI38" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="39" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>323</v>
       </c>
@@ -7236,20 +7273,17 @@
       <c r="BD39" t="s">
         <v>127</v>
       </c>
-      <c r="BF39" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ39" t="s">
-        <v>127</v>
+      <c r="BG39" t="s">
+        <v>128</v>
       </c>
       <c r="BK39" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="BL39" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="BM39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BN39" t="s">
         <v>128</v>
@@ -7257,62 +7291,65 @@
       <c r="BO39" t="s">
         <v>128</v>
       </c>
-      <c r="BQ39" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR39" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY39" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ39" t="s">
-        <v>128</v>
+      <c r="BP39" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA39" t="s">
+        <v>127</v>
       </c>
       <c r="CB39" t="s">
         <v>128</v>
       </c>
-      <c r="CC39" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI39" t="s">
-        <v>127</v>
+      <c r="CD39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE39" t="s">
+        <v>128</v>
       </c>
       <c r="CK39" t="s">
         <v>127</v>
       </c>
-      <c r="CL39" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="CM39" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ39" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR39" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA39" t="s">
-        <v>27</v>
-      </c>
-      <c r="DB39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="DD39" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE39" t="s">
+        <v>127</v>
+      </c>
+      <c r="CN39" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS39" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT39" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC39" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="DF39" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="DG39" t="s">
+        <v>27</v>
+      </c>
+      <c r="DH39" t="s">
+        <v>27</v>
+      </c>
+      <c r="DI39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>323</v>
       </c>
@@ -7409,17 +7446,14 @@
       <c r="BD40" t="s">
         <v>127</v>
       </c>
-      <c r="BF40" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ40" t="s">
+      <c r="BG40" t="s">
         <v>128</v>
       </c>
       <c r="BK40" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL40" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="BM40" t="s">
         <v>128</v>
@@ -7430,62 +7464,65 @@
       <c r="BO40" t="s">
         <v>128</v>
       </c>
-      <c r="BQ40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>128</v>
-      </c>
-      <c r="BY40" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ40" t="s">
+      <c r="BP40" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA40" t="s">
         <v>128</v>
       </c>
       <c r="CB40" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC40" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI40" t="s">
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="CD40" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE40" t="s">
+        <v>128</v>
       </c>
       <c r="CK40" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL40" s="6" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="CM40" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ40" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR40" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA40" t="s">
-        <v>127</v>
-      </c>
-      <c r="DB40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DD40" t="s">
-        <v>127</v>
-      </c>
-      <c r="DE40" t="s">
-        <v>27</v>
+        <v>127</v>
+      </c>
+      <c r="CN40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS40" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT40" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC40" t="s">
+        <v>127</v>
+      </c>
+      <c r="DD40" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="DF40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DG40" t="s">
         <v>27</v>
       </c>
+      <c r="DH40" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI40" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="41" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>323</v>
       </c>
@@ -7582,10 +7619,7 @@
       <c r="BD41" t="s">
         <v>128</v>
       </c>
-      <c r="BF41" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ41" t="s">
+      <c r="BG41" t="s">
         <v>128</v>
       </c>
       <c r="BK41" t="s">
@@ -7598,67 +7632,70 @@
         <v>128</v>
       </c>
       <c r="BN41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BO41" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ41" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY41" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ41" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA41" t="s">
         <v>128</v>
       </c>
       <c r="CB41" t="s">
         <v>128</v>
       </c>
-      <c r="CC41" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI41" t="s">
+      <c r="CD41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE41" t="s">
         <v>128</v>
       </c>
       <c r="CK41" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL41" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CM41" t="s">
         <v>127</v>
       </c>
-      <c r="CQ41" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR41" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA41" t="s">
-        <v>27</v>
-      </c>
-      <c r="DB41" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="DD41" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE41" t="s">
-        <v>27</v>
+      <c r="CN41" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>127</v>
+      </c>
+      <c r="CS41" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC41" t="s">
+        <v>27</v>
+      </c>
+      <c r="DD41" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="DF41" t="s">
         <v>128</v>
       </c>
       <c r="DG41" t="s">
+        <v>27</v>
+      </c>
+      <c r="DH41" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>323</v>
       </c>
@@ -7755,83 +7792,83 @@
       <c r="BD42" t="s">
         <v>128</v>
       </c>
-      <c r="BF42" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ42" t="s">
-        <v>127</v>
+      <c r="BG42" t="s">
+        <v>128</v>
       </c>
       <c r="BK42" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="BL42" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="BM42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BN42" t="s">
         <v>127</v>
       </c>
       <c r="BO42" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ42" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR42" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY42" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ42" t="s">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS42" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA42" t="s">
+        <v>128</v>
       </c>
       <c r="CB42" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC42" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI42" t="s">
-        <v>27</v>
+        <v>127</v>
+      </c>
+      <c r="CD42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE42" t="s">
+        <v>128</v>
       </c>
       <c r="CK42" t="s">
-        <v>128</v>
-      </c>
-      <c r="CL42" s="6" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="CM42" t="s">
         <v>128</v>
       </c>
-      <c r="CQ42" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR42" t="s">
-        <v>27</v>
-      </c>
-      <c r="DA42" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB42" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="DD42" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE42" t="s">
-        <v>27</v>
+      <c r="CN42" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS42" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT42" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC42" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD42" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="DF42" t="s">
         <v>128</v>
       </c>
       <c r="DG42" t="s">
+        <v>27</v>
+      </c>
+      <c r="DH42" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>323</v>
       </c>
@@ -7928,83 +7965,83 @@
       <c r="BD43" t="s">
         <v>127</v>
       </c>
-      <c r="BF43" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ43" t="s">
+      <c r="BG43" t="s">
         <v>128</v>
       </c>
       <c r="BK43" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL43" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="BM43" t="s">
         <v>128</v>
       </c>
       <c r="BN43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BO43" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ43" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="BR43" t="s">
-        <v>128</v>
-      </c>
-      <c r="BY43" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ43" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP43" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="BS43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA43" t="s">
         <v>128</v>
       </c>
       <c r="CB43" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC43" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI43" t="s">
-        <v>27</v>
+        <v>128</v>
+      </c>
+      <c r="CD43" t="s">
+        <v>127</v>
+      </c>
+      <c r="CE43" t="s">
+        <v>128</v>
       </c>
       <c r="CK43" t="s">
-        <v>128</v>
-      </c>
-      <c r="CL43" s="6" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="CM43" t="s">
         <v>128</v>
       </c>
-      <c r="CQ43" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR43" t="s">
-        <v>27</v>
-      </c>
-      <c r="DA43" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="DD43" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE43" t="s">
+      <c r="CN43" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="CO43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS43" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT43" t="s">
+        <v>27</v>
+      </c>
+      <c r="DC43" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD43" s="5" t="s">
         <v>27</v>
       </c>
       <c r="DF43" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="DG43" t="s">
         <v>27</v>
       </c>
+      <c r="DH43" t="s">
+        <v>27</v>
+      </c>
+      <c r="DI43" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="44" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>323</v>
       </c>
@@ -8101,74 +8138,68 @@
       <c r="BD44" t="s">
         <v>127</v>
       </c>
-      <c r="BF44" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ44" t="s">
+      <c r="BG44" t="s">
         <v>128</v>
       </c>
       <c r="BK44" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="BL44" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="BM44" t="s">
         <v>128</v>
       </c>
       <c r="BN44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BO44" t="s">
-        <v>128</v>
-      </c>
-      <c r="BQ44" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR44" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY44" t="s">
-        <v>128</v>
-      </c>
-      <c r="BZ44" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP44" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA44" t="s">
         <v>128</v>
       </c>
       <c r="CB44" t="s">
         <v>128</v>
       </c>
-      <c r="CC44" t="s">
-        <v>128</v>
-      </c>
-      <c r="CI44" t="s">
-        <v>27</v>
+      <c r="CD44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE44" t="s">
+        <v>128</v>
       </c>
       <c r="CK44" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL44" s="6" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="CM44" t="s">
-        <v>128</v>
-      </c>
-      <c r="CQ44" t="s">
-        <v>128</v>
-      </c>
-      <c r="CR44" t="s">
-        <v>128</v>
-      </c>
-      <c r="DA44" t="s">
-        <v>128</v>
-      </c>
-      <c r="DB44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="DD44" t="s">
-        <v>128</v>
-      </c>
-      <c r="DE44" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="CN44" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CS44" t="s">
+        <v>128</v>
+      </c>
+      <c r="CT44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DC44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DD44" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="DF44" t="s">
         <v>128</v>
@@ -8176,8 +8207,14 @@
       <c r="DG44" t="s">
         <v>128</v>
       </c>
+      <c r="DH44" t="s">
+        <v>128</v>
+      </c>
+      <c r="DI44" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="45" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>394</v>
       </c>
@@ -8229,23 +8266,23 @@
       <c r="U45" t="s">
         <v>397</v>
       </c>
-      <c r="BJ45" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO45" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR45" t="s">
-        <v>127</v>
-      </c>
-      <c r="CQ45" s="5" t="s">
+      <c r="BK45" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>127</v>
+      </c>
+      <c r="CS45" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="DB45" s="5" t="s">
+      <c r="DD45" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:111" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>400</v>
       </c>
@@ -8318,16 +8355,13 @@
       <c r="BD46" t="s">
         <v>127</v>
       </c>
-      <c r="BK46" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR46" t="s">
+      <c r="BL46" t="s">
         <v>127</v>
       </c>
       <c r="BS46" t="s">
-        <v>128</v>
-      </c>
-      <c r="BU46" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT46" t="s">
         <v>128</v>
       </c>
       <c r="BV46" t="s">
@@ -8342,14 +8376,17 @@
       <c r="BY46" t="s">
         <v>128</v>
       </c>
-      <c r="BZ46" t="s">
-        <v>128</v>
-      </c>
       <c r="CA46" t="s">
         <v>128</v>
       </c>
+      <c r="CB46" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC46" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="47" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>400</v>
       </c>
@@ -8434,17 +8471,14 @@
       <c r="BD47" t="s">
         <v>127</v>
       </c>
-      <c r="BK47" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR47" t="s">
-        <v>128</v>
-      </c>
-      <c r="BS47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU47" t="s">
-        <v>128</v>
+      <c r="BL47" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT47" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="BV47" t="s">
         <v>128</v>
@@ -8458,20 +8492,23 @@
       <c r="BY47" t="s">
         <v>128</v>
       </c>
-      <c r="BZ47" t="s">
-        <v>128</v>
-      </c>
       <c r="CA47" t="s">
         <v>128</v>
       </c>
-      <c r="CI47" t="s">
-        <v>128</v>
-      </c>
-      <c r="CL47" t="s">
+      <c r="CB47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK47" t="s">
+        <v>128</v>
+      </c>
+      <c r="CN47" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:111" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:113" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>400</v>
       </c>
@@ -8550,12 +8587,9 @@
       <c r="BD48" t="s">
         <v>243</v>
       </c>
-      <c r="BT48" t="s">
+      <c r="BU48" t="s">
         <v>243</v>
       </c>
-      <c r="BU48" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="BV48" s="5" t="s">
         <v>128</v>
       </c>
@@ -8568,11 +8602,164 @@
       <c r="BY48" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="BZ48" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="BZ48" s="5"/>
       <c r="CA48" s="5" t="s">
         <v>128</v>
+      </c>
+      <c r="CB48" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC48" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:101" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" t="s">
+        <v>417</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>418</v>
+      </c>
+      <c r="M49" t="s">
+        <v>243</v>
+      </c>
+      <c r="N49" t="s">
+        <v>195</v>
+      </c>
+      <c r="O49" t="s">
+        <v>126</v>
+      </c>
+      <c r="P49" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AW49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BX49" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY49" t="s">
+        <v>27</v>
+      </c>
+      <c r="BZ49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CA49" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CC49" t="s">
+        <v>127</v>
+      </c>
+      <c r="CG49" t="s">
+        <v>128</v>
+      </c>
+      <c r="CW49" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
+++ b/notebooks/TGFBR2/input/TGFBR2_LDS2_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/TGFBR2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608EAF9-6826-B84E-9930-819287D73CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA757D-744B-A540-A950-C3C1E783A14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="8280" windowWidth="35660" windowHeight="6060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="4820" windowWidth="35660" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="442">
   <si>
     <t>PMID</t>
   </si>
@@ -1305,13 +1305,67 @@
   </si>
   <si>
     <t>HP:0000545</t>
+  </si>
+  <si>
+    <t>PMID:16027248</t>
+  </si>
+  <si>
+    <t>Mutations in transforming growth factor-beta receptor type II cause familial thoracic aortic aneurysms and dissections</t>
+  </si>
+  <si>
+    <t>NM_003242.6(TGFBR2):c.1378C&gt;T (p.Arg460Cys)</t>
+  </si>
+  <si>
+    <t>c.1378C&gt;T</t>
+  </si>
+  <si>
+    <t>Clinical data from PMID:12821554</t>
+  </si>
+  <si>
+    <t>P11Y</t>
+  </si>
+  <si>
+    <t>P28Y</t>
+  </si>
+  <si>
+    <t>P30Y</t>
+  </si>
+  <si>
+    <t>P14Y</t>
+  </si>
+  <si>
+    <t>Protrusio acetabuli</t>
+  </si>
+  <si>
+    <t>HP:0003179</t>
+  </si>
+  <si>
+    <t>Family TAA035 Individual III:8</t>
+  </si>
+  <si>
+    <t>Family TAA035 Individual IV:5</t>
+  </si>
+  <si>
+    <t>Family TAA035 Individual IV:6</t>
+  </si>
+  <si>
+    <t>Family TAA035 Individual IV:7</t>
+  </si>
+  <si>
+    <t>Family TAA035 Individual IV:9</t>
+  </si>
+  <si>
+    <t>Family TAA035 Individual IV:10</t>
+  </si>
+  <si>
+    <t>Other families are not curated because only incomplete clinical data are presented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,6 +1406,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383330"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383330"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1388,7 +1461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1402,6 +1475,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1706,10 +1782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI49"/>
+  <dimension ref="A1:DJ56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="A2:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1795,7 @@
     <col min="10" max="11" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:114" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2059,8 +2135,11 @@
       <c r="DI1" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="DJ1" s="4" t="s">
+        <v>433</v>
+      </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2400,8 +2479,11 @@
       <c r="DI2" t="s">
         <v>391</v>
       </c>
+      <c r="DJ2" t="s">
+        <v>434</v>
+      </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -2520,7 +2602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2675,7 +2757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -2830,7 +2912,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2988,7 +3070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -3146,7 +3228,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -3307,7 +3389,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -3456,7 +3538,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -3614,7 +3696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -3766,7 +3848,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3918,7 +4000,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -4073,7 +4155,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -4207,7 +4289,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -4326,7 +4408,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>155</v>
       </c>
@@ -5151,6 +5233,9 @@
       <c r="B24" t="s">
         <v>217</v>
       </c>
+      <c r="C24" t="s">
+        <v>225</v>
+      </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
@@ -8613,13 +8698,16 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:101" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:114" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>416</v>
       </c>
       <c r="B49" t="s">
         <v>417</v>
       </c>
+      <c r="C49" t="s">
+        <v>246</v>
+      </c>
       <c r="E49" t="s">
         <v>20</v>
       </c>
@@ -8761,6 +8849,505 @@
       <c r="CW49" t="s">
         <v>243</v>
       </c>
+    </row>
+    <row r="50" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" t="s">
+        <v>425</v>
+      </c>
+      <c r="C50" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" t="s">
+        <v>428</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>426</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O50" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V50" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK50" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ50" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" t="s">
+        <v>436</v>
+      </c>
+      <c r="D51" t="s">
+        <v>441</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="O51" t="s">
+        <v>126</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V51" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM51" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV51" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK51" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ51" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>424</v>
+      </c>
+      <c r="B52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C52" t="s">
+        <v>437</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="V52" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD52" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK52" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ52" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>424</v>
+      </c>
+      <c r="B53" t="s">
+        <v>425</v>
+      </c>
+      <c r="C53" t="s">
+        <v>438</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>427</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="O53" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>27</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V53" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ53" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54" t="s">
+        <v>425</v>
+      </c>
+      <c r="C54" t="s">
+        <v>439</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>427</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="O54" t="s">
+        <v>126</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="U54" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V54" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD54" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ54" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD54" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV54" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK54" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ54" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>424</v>
+      </c>
+      <c r="B55" t="s">
+        <v>425</v>
+      </c>
+      <c r="C55" t="s">
+        <v>440</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O55" t="s">
+        <v>126</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V55" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM55" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="BD55" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="CK55" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="DJ55" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:114" x14ac:dyDescent="0.2">
+      <c r="N56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="U56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="CK56" s="9"/>
+      <c r="DJ56" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
